--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="723">
   <si>
     <t>id</t>
   </si>
@@ -222,9 +222,6 @@
     <t>IMG_1051.JPG</t>
   </si>
   <si>
-    <t>вторник</t>
-  </si>
-  <si>
     <t>за 100</t>
   </si>
   <si>
@@ -237,9 +234,6 @@
     <t>IMG_0825.JPG</t>
   </si>
   <si>
-    <t>среда</t>
-  </si>
-  <si>
     <t>Свинина отбивная в картофельном кляре</t>
   </si>
   <si>
@@ -249,9 +243,6 @@
     <t>IMG_0893.JPG</t>
   </si>
   <si>
-    <t>четверг</t>
-  </si>
-  <si>
     <t>Гуляш</t>
   </si>
   <si>
@@ -261,9 +252,6 @@
     <t>IMG_0279.JPG</t>
   </si>
   <si>
-    <t>пятница</t>
-  </si>
-  <si>
     <t>75; 50</t>
   </si>
   <si>
@@ -276,9 +264,6 @@
     <t>IMG_0907.JPG</t>
   </si>
   <si>
-    <t>суббота</t>
-  </si>
-  <si>
     <t>Ежик мясной</t>
   </si>
   <si>
@@ -288,9 +273,6 @@
     <t>IMG_1282.JPG</t>
   </si>
   <si>
-    <t>воскресенье</t>
-  </si>
-  <si>
     <t>60/20</t>
   </si>
   <si>
@@ -301,9 +283,6 @@
   </si>
   <si>
     <t>IMG_0838.JPG</t>
-  </si>
-  <si>
-    <t>понедельник</t>
   </si>
   <si>
     <t>Драник с мясом</t>
@@ -2882,7 +2861,7 @@
         <v>64</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K12" s="7">
         <v>250.0</v>
@@ -2910,10 +2889,10 @@
         <v>64</v>
       </c>
       <c r="I13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>23</v>
@@ -2921,14 +2900,14 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="B14" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="F14" s="5">
         <v>152.0</v>
@@ -2938,7 +2917,7 @@
         <v>64</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7">
         <v>120.0</v>
@@ -2949,14 +2928,14 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="B15" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" s="5">
         <v>156.0</v>
@@ -2966,7 +2945,7 @@
         <v>64</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K15" s="7">
         <v>120.0</v>
@@ -2977,14 +2956,14 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="B16" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F16" s="5">
         <v>181.0</v>
@@ -2994,10 +2973,10 @@
         <v>64</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>23</v>
@@ -3005,14 +2984,14 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="B17" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F17" s="5">
         <v>120.0</v>
@@ -3022,7 +3001,7 @@
         <v>64</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K17" s="7">
         <v>140.0</v>
@@ -3033,14 +3012,14 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="B18" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F18" s="5">
         <v>90.0</v>
@@ -3050,10 +3029,10 @@
         <v>64</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>23</v>
@@ -3061,14 +3040,14 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="B19" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F19" s="5">
         <v>132.0</v>
@@ -3078,7 +3057,7 @@
         <v>64</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K19" s="7">
         <v>130.0</v>
@@ -3089,14 +3068,14 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="B20" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F20" s="5">
         <v>88.0</v>
@@ -3106,7 +3085,7 @@
         <v>64</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K20" s="7">
         <v>140.0</v>
@@ -3117,14 +3096,14 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="B21" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F21" s="5">
         <v>100.0</v>
@@ -3134,7 +3113,7 @@
         <v>64</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K21" s="7">
         <v>75.0</v>
@@ -3145,14 +3124,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="B22" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F22" s="5">
         <v>110.0</v>
@@ -3162,7 +3141,7 @@
         <v>64</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K22" s="7">
         <v>75.0</v>
@@ -3173,14 +3152,14 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="B23" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F23" s="5">
         <v>83.0</v>
@@ -3190,11 +3169,11 @@
         <v>64</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>23</v>
@@ -3202,14 +3181,14 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="B24" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F24" s="5">
         <v>99.0</v>
@@ -3219,7 +3198,7 @@
         <v>64</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="7">
@@ -3231,14 +3210,14 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="B25" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F25" s="5">
         <v>121.0</v>
@@ -3248,7 +3227,7 @@
         <v>64</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="7">
@@ -3260,14 +3239,14 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="B26" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F26" s="5">
         <v>132.0</v>
@@ -3277,7 +3256,7 @@
         <v>64</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="7">
@@ -3289,14 +3268,14 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="B27" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F27" s="5">
         <v>183.0</v>
@@ -3306,7 +3285,7 @@
         <v>64</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="7">
@@ -3318,14 +3297,14 @@
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="B28" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F28" s="5">
         <v>154.0</v>
@@ -3335,7 +3314,7 @@
         <v>64</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="7">
@@ -3347,14 +3326,14 @@
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="B29" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F29" s="5">
         <v>156.0</v>
@@ -3364,7 +3343,7 @@
         <v>64</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="7">
@@ -3376,14 +3355,14 @@
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="B30" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F30" s="5">
         <v>165.0</v>
@@ -3393,7 +3372,7 @@
         <v>64</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="7">
@@ -3405,13 +3384,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="B31" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F31" s="5">
         <v>212.0</v>
@@ -3420,7 +3399,7 @@
         <v>64</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K31" s="7">
         <v>250.0</v>
@@ -3431,13 +3410,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="B32" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F32" s="5">
         <v>160.0</v>
@@ -3446,7 +3425,7 @@
         <v>64</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K32" s="7">
         <v>250.0</v>
@@ -3457,13 +3436,13 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="B33" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F33" s="5">
         <v>143.0</v>
@@ -3472,10 +3451,10 @@
         <v>64</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>23</v>
@@ -3483,13 +3462,13 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="B34" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F34" s="5">
         <v>165.0</v>
@@ -3498,7 +3477,7 @@
         <v>64</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K34" s="7">
         <v>140.0</v>
@@ -3509,13 +3488,13 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="B35" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F35" s="5">
         <v>157.0</v>
@@ -3524,7 +3503,7 @@
         <v>64</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K35" s="7">
         <v>120.0</v>
@@ -3535,13 +3514,13 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="B36" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F36" s="5">
         <v>149.0</v>
@@ -3550,7 +3529,7 @@
         <v>64</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K36" s="7">
         <v>100.0</v>
@@ -3561,13 +3540,13 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="B37" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F37" s="5">
         <v>157.0</v>
@@ -3576,7 +3555,7 @@
         <v>64</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K37" s="7">
         <v>110.0</v>
@@ -3587,13 +3566,13 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="B38" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F38" s="5">
         <v>192.0</v>
@@ -3602,7 +3581,7 @@
         <v>64</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K38" s="7">
         <v>150.0</v>
@@ -3613,13 +3592,13 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="B39" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F39" s="5">
         <v>110.0</v>
@@ -3628,7 +3607,7 @@
         <v>64</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K39" s="7">
         <v>100.0</v>
@@ -3639,13 +3618,13 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="B40" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F40" s="5">
         <v>149.0</v>
@@ -3654,7 +3633,7 @@
         <v>64</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K40" s="7">
         <v>110.0</v>
@@ -3665,13 +3644,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="B41" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F41" s="5">
         <v>120.0</v>
@@ -3680,7 +3659,7 @@
         <v>64</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K41" s="7">
         <v>100.0</v>
@@ -3691,13 +3670,13 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="B42" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F42" s="5">
         <v>160.0</v>
@@ -3706,7 +3685,7 @@
         <v>64</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K42" s="7">
         <v>110.0</v>
@@ -3717,13 +3696,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="B43" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F43" s="5">
         <v>157.0</v>
@@ -3732,7 +3711,7 @@
         <v>64</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K43" s="7">
         <v>110.0</v>
@@ -3743,13 +3722,13 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="B44" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F44" s="5">
         <v>77.0</v>
@@ -3758,7 +3737,7 @@
         <v>64</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K44" s="7">
         <v>80.0</v>
@@ -3769,13 +3748,13 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="B45" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F45" s="5">
         <v>132.0</v>
@@ -3784,7 +3763,7 @@
         <v>64</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K45" s="7">
         <v>120.0</v>
@@ -3795,13 +3774,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="B46" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F46" s="5">
         <v>104.0</v>
@@ -3810,7 +3789,7 @@
         <v>64</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K46" s="7">
         <v>90.0</v>
@@ -3821,13 +3800,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="B47" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F47" s="5">
         <v>139.0</v>
@@ -3836,7 +3815,7 @@
         <v>64</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K47" s="7">
         <v>250.0</v>
@@ -3847,13 +3826,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="B48" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F48" s="5">
         <v>120.0</v>
@@ -3862,7 +3841,7 @@
         <v>64</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K48" s="7">
         <v>100.0</v>
@@ -3873,13 +3852,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="B49" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F49" s="5">
         <v>110.0</v>
@@ -3888,7 +3867,7 @@
         <v>64</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K49" s="7">
         <v>100.0</v>
@@ -3899,13 +3878,13 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="B50" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F50" s="5">
         <v>126.0</v>
@@ -3914,7 +3893,7 @@
         <v>64</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K50" s="7">
         <v>130.0</v>
@@ -3925,13 +3904,13 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="B51" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F51" s="5">
         <v>70.0</v>
@@ -3940,10 +3919,10 @@
         <v>64</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>23</v>
@@ -3951,13 +3930,13 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="B52" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F52" s="5">
         <v>121.0</v>
@@ -3966,7 +3945,7 @@
         <v>64</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K52" s="7">
         <v>120.0</v>
@@ -3977,13 +3956,13 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="B53" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F53" s="5">
         <v>121.0</v>
@@ -3992,7 +3971,7 @@
         <v>64</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K53" s="7">
         <v>120.0</v>
@@ -4003,13 +3982,13 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="B54" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F54" s="5">
         <v>92.0</v>
@@ -4018,7 +3997,7 @@
         <v>64</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K54" s="7">
         <v>75.0</v>
@@ -4029,13 +4008,13 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="B55" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F55" s="5">
         <v>172.0</v>
@@ -4044,7 +4023,7 @@
         <v>64</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K55" s="7">
         <v>110.0</v>
@@ -4055,13 +4034,13 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="B56" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F56" s="5">
         <v>149.0</v>
@@ -4070,7 +4049,7 @@
         <v>64</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K56" s="7">
         <v>110.0</v>
@@ -4081,13 +4060,13 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="B57" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F57" s="5">
         <v>121.0</v>
@@ -4096,10 +4075,10 @@
         <v>64</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>23</v>
@@ -4107,13 +4086,13 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="B58" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F58" s="5">
         <v>174.0</v>
@@ -4122,7 +4101,7 @@
         <v>64</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K58" s="7">
         <v>200.0</v>
@@ -4133,13 +4112,13 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="B59" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F59" s="5">
         <v>156.0</v>
@@ -4148,7 +4127,7 @@
         <v>64</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K59" s="7">
         <v>120.0</v>
@@ -4159,13 +4138,13 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="B60" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F60" s="5">
         <v>156.0</v>
@@ -4174,7 +4153,7 @@
         <v>64</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K60" s="7">
         <v>120.0</v>
@@ -4185,13 +4164,13 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="B61" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F61" s="5">
         <v>183.0</v>
@@ -4200,7 +4179,7 @@
         <v>64</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K61" s="7">
         <v>150.0</v>
@@ -4211,13 +4190,13 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="B62" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F62" s="5">
         <v>132.0</v>
@@ -4226,10 +4205,10 @@
         <v>64</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L62" s="7" t="s">
         <v>23</v>
@@ -4237,13 +4216,13 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="B63" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F63" s="5">
         <v>105.0</v>
@@ -4252,7 +4231,7 @@
         <v>64</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K63" s="7">
         <v>100.0</v>
@@ -4263,13 +4242,13 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="B64" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F64" s="5">
         <v>180.0</v>
@@ -4278,10 +4257,10 @@
         <v>64</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L64" s="7" t="s">
         <v>23</v>
@@ -4289,13 +4268,13 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="B65" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F65" s="5">
         <v>126.0</v>
@@ -4304,7 +4283,7 @@
         <v>64</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K65" s="7">
         <v>120.0</v>
@@ -4315,13 +4294,13 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="B66" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F66" s="5">
         <v>66.0</v>
@@ -4330,7 +4309,7 @@
         <v>64</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K66" s="7">
         <v>90.0</v>
@@ -4341,13 +4320,13 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="B67" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F67" s="5">
         <v>77.0</v>
@@ -4356,7 +4335,7 @@
         <v>64</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K67" s="7">
         <v>75.0</v>
@@ -4367,13 +4346,13 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="B68" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F68" s="5">
         <v>187.0</v>
@@ -4382,7 +4361,7 @@
         <v>64</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K68" s="7">
         <v>100.0</v>
@@ -4393,13 +4372,13 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="B69" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F69" s="5">
         <v>102.0</v>
@@ -4408,10 +4387,10 @@
         <v>64</v>
       </c>
       <c r="I69" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K69" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="L69" s="7" t="s">
         <v>23</v>
@@ -4419,13 +4398,13 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="B70" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F70" s="5">
         <v>66.0</v>
@@ -4434,10 +4413,10 @@
         <v>64</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>23</v>
@@ -4445,13 +4424,13 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="B71" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F71" s="5">
         <v>63.0</v>
@@ -4460,10 +4439,10 @@
         <v>64</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L71" s="7" t="s">
         <v>23</v>
@@ -4471,13 +4450,13 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="B72" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F72" s="5">
         <v>170.0</v>
@@ -4486,7 +4465,7 @@
         <v>64</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K72" s="7">
         <v>100.0</v>
@@ -4497,13 +4476,13 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="B73" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F73" s="5">
         <v>110.0</v>
@@ -4512,7 +4491,7 @@
         <v>64</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K73" s="7">
         <v>100.0</v>
@@ -4523,13 +4502,13 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="B74" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F74" s="5">
         <v>88.0</v>
@@ -4538,7 +4517,7 @@
         <v>64</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K74" s="7">
         <v>75.0</v>
@@ -4549,13 +4528,13 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="B75" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F75" s="5">
         <v>17.0</v>
@@ -4564,7 +4543,7 @@
         <v>64</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K75" s="7">
         <v>40.0</v>
@@ -4575,13 +4554,13 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="B76" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F76" s="5">
         <v>110.0</v>
@@ -4590,7 +4569,7 @@
         <v>64</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K76" s="7">
         <v>100.0</v>
@@ -4601,13 +4580,13 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="B77" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F77" s="5">
         <v>100.0</v>
@@ -4616,7 +4595,7 @@
         <v>64</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K77" s="7">
         <v>100.0</v>
@@ -4627,13 +4606,13 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="B78" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F78" s="5">
         <v>88.0</v>
@@ -4642,10 +4621,10 @@
         <v>64</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>23</v>
@@ -4653,13 +4632,13 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="B79" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F79" s="5">
         <v>187.0</v>
@@ -4668,7 +4647,7 @@
         <v>64</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K79" s="7">
         <v>100.0</v>
@@ -4679,13 +4658,13 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="B80" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F80" s="5">
         <v>63.0</v>
@@ -4694,7 +4673,7 @@
         <v>64</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K80" s="7">
         <v>80.0</v>
@@ -4705,13 +4684,13 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="B81" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F81" s="5">
         <v>110.0</v>
@@ -4720,10 +4699,10 @@
         <v>64</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>23</v>
@@ -4731,22 +4710,22 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="B82" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F82" s="5">
         <v>60.0</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K82" s="7">
         <v>120.0</v>
@@ -4755,27 +4734,27 @@
         <v>23</v>
       </c>
       <c r="N82" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="B83" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F83" s="5">
         <v>65.0</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K83" s="7">
         <v>120.0</v>
@@ -4786,22 +4765,22 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="B84" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F84" s="5">
         <v>90.0</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K84" s="7">
         <v>120.0</v>
@@ -4812,22 +4791,22 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="B85" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F85" s="5">
         <v>65.0</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K85" s="7">
         <v>120.0</v>
@@ -4838,22 +4817,22 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="B86" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F86" s="5">
         <v>55.0</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K86" s="7">
         <v>120.0</v>
@@ -4864,25 +4843,25 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="B87" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F87" s="5">
         <v>60.0</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>23</v>
@@ -4890,22 +4869,22 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="B88" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F88" s="5">
         <v>65.0</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K88" s="7">
         <v>120.0</v>
@@ -4916,22 +4895,22 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="B89" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F89" s="5">
         <v>60.0</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K89" s="7">
         <v>120.0</v>
@@ -4942,22 +4921,22 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="B90" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F90" s="5">
         <v>50.0</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K90" s="7">
         <v>120.0</v>
@@ -4968,22 +4947,22 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="B91" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F91" s="5">
         <v>45.0</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K91" s="7">
         <v>100.0</v>
@@ -4994,22 +4973,22 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="B92" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F92" s="5">
         <v>65.0</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K92" s="7">
         <v>120.0</v>
@@ -5020,22 +4999,22 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="B93" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F93" s="5">
         <v>65.0</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K93" s="7">
         <v>120.0</v>
@@ -5046,22 +5025,22 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="B94" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F94" s="5">
         <v>80.0</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K94" s="7">
         <v>120.0</v>
@@ -5072,22 +5051,22 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="B95" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F95" s="5">
         <v>50.0</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K95" s="7">
         <v>120.0</v>
@@ -5098,22 +5077,22 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="B96" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F96" s="5">
         <v>65.0</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K96" s="7">
         <v>120.0</v>
@@ -5124,22 +5103,22 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="B97" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F97" s="5">
         <v>75.0</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K97" s="7">
         <v>120.0</v>
@@ -5150,22 +5129,22 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="B98" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F98" s="5">
         <v>100.0</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K98" s="7">
         <v>120.0</v>
@@ -5176,22 +5155,22 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="B99" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F99" s="5">
         <v>80.0</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K99" s="7">
         <v>120.0</v>
@@ -5202,22 +5181,22 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="B100" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F100" s="5">
         <v>70.0</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K100" s="7">
         <v>120.0</v>
@@ -5228,22 +5207,22 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="B101" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F101" s="5">
         <v>60.0</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K101" s="7">
         <v>120.0</v>
@@ -5254,22 +5233,22 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="B102" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F102" s="5">
         <v>70.0</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K102" s="7">
         <v>120.0</v>
@@ -5280,22 +5259,22 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="B103" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F103" s="5">
         <v>85.0</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K103" s="7">
         <v>120.0</v>
@@ -5306,22 +5285,22 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="B104" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F104" s="5">
         <v>70.0</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K104" s="7">
         <v>120.0</v>
@@ -5332,22 +5311,22 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="B105" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F105" s="5">
         <v>79.0</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K105" s="7">
         <v>120.0</v>
@@ -5358,22 +5337,22 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="B106" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F106" s="5">
         <v>70.0</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K106" s="7">
         <v>120.0</v>
@@ -5384,22 +5363,22 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="B107" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F107" s="5">
         <v>75.0</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K107" s="7">
         <v>120.0</v>
@@ -5410,22 +5389,22 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="B108" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F108" s="5">
         <v>80.0</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K108" s="7">
         <v>120.0</v>
@@ -5436,22 +5415,22 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="B109" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F109" s="5">
         <v>75.0</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K109" s="7">
         <v>120.0</v>
@@ -5462,22 +5441,22 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="B110" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F110" s="5">
         <v>80.0</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K110" s="7">
         <v>120.0</v>
@@ -5488,22 +5467,22 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="B111" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F111" s="5">
         <v>75.0</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K111" s="7">
         <v>120.0</v>
@@ -5514,22 +5493,22 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="B112" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F112" s="5">
         <v>75.0</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K112" s="7">
         <v>120.0</v>
@@ -5540,22 +5519,22 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="B113" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F113" s="5">
         <v>70.0</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K113" s="7">
         <v>120.0</v>
@@ -5566,22 +5545,22 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="B114" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F114" s="5">
         <v>75.0</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K114" s="7">
         <v>120.0</v>
@@ -5592,22 +5571,22 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="B115" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F115" s="5">
         <v>70.0</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K115" s="7">
         <v>120.0</v>
@@ -5618,22 +5597,22 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="B116" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F116" s="5">
         <v>90.0</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K116" s="7">
         <v>120.0</v>
@@ -5644,22 +5623,22 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="B117" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F117" s="5">
         <v>75.0</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K117" s="7">
         <v>120.0</v>
@@ -5670,22 +5649,22 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="B118" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F118" s="5">
         <v>75.0</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K118" s="7">
         <v>120.0</v>
@@ -5696,22 +5675,22 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="B119" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F119" s="5">
         <v>90.0</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K119" s="7">
         <v>120.0</v>
@@ -5722,22 +5701,22 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="B120" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F120" s="5">
         <v>80.0</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K120" s="7">
         <v>120.0</v>
@@ -5748,22 +5727,22 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="B121" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F121" s="5">
         <v>90.0</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K121" s="7">
         <v>120.0</v>
@@ -5774,22 +5753,22 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="B122" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F122" s="5">
         <v>85.0</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K122" s="7">
         <v>120.0</v>
@@ -5800,22 +5779,22 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="B123" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F123" s="5">
         <v>85.0</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K123" s="7">
         <v>120.0</v>
@@ -5826,22 +5805,22 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="B124" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F124" s="5">
         <v>85.0</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K124" s="7">
         <v>120.0</v>
@@ -5852,22 +5831,22 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="B125" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F125" s="5">
         <v>85.0</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K125" s="7">
         <v>120.0</v>
@@ -5878,22 +5857,22 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="B126" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F126" s="5">
         <v>85.0</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K126" s="7">
         <v>120.0</v>
@@ -5904,22 +5883,22 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="B127" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="F127" s="5">
         <v>90.0</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K127" s="7">
         <v>120.0</v>
@@ -5930,22 +5909,22 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="B128" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F128" s="5">
         <v>85.0</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K128" s="7">
         <v>120.0</v>
@@ -5956,22 +5935,22 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="B129" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F129" s="5">
         <v>90.0</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K129" s="7">
         <v>120.0</v>
@@ -5982,22 +5961,22 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="B130" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F130" s="5">
         <v>80.0</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K130" s="7">
         <v>120.0</v>
@@ -6008,22 +5987,22 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="B131" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F131" s="5">
         <v>85.0</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K131" s="7">
         <v>120.0</v>
@@ -6034,22 +6013,22 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="B132" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F132" s="5">
         <v>90.0</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K132" s="7">
         <v>120.0</v>
@@ -6060,22 +6039,22 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="B133" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F133" s="5">
         <v>80.0</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K133" s="7">
         <v>120.0</v>
@@ -6086,22 +6065,22 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="B134" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F134" s="5">
         <v>71.0</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K134" s="7">
         <v>120.0</v>
@@ -6112,22 +6091,22 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="B135" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="F135" s="5">
         <v>75.0</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K135" s="7">
         <v>120.0</v>
@@ -6138,22 +6117,22 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="B136" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F136" s="5">
         <v>70.0</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K136" s="7">
         <v>120.0</v>
@@ -6164,22 +6143,22 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="B137" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F137" s="5">
         <v>60.0</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K137" s="7">
         <v>120.0</v>
@@ -6190,22 +6169,22 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="B138" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F138" s="5">
         <v>80.0</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K138" s="7">
         <v>120.0</v>
@@ -6216,22 +6195,22 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="B139" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F139" s="5">
         <v>10.0</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K139" s="7">
         <v>1.0</v>
@@ -6242,22 +6221,22 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="B140" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F140" s="5">
         <v>8.0</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K140" s="7">
         <v>1.0</v>
@@ -6268,22 +6247,22 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="B141" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F141" s="5">
         <v>41.0</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K141" s="7">
         <v>50.0</v>
@@ -6294,48 +6273,48 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="B142" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F142" s="5">
         <v>46.0</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K142" s="7">
         <v>50.0</v>
       </c>
       <c r="L142" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="B143" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F143" s="5">
         <v>48.0</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K143" s="7">
         <v>150.0</v>
@@ -6346,22 +6325,22 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="B144" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F144" s="5">
         <v>30.0</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K144" s="7">
         <v>150.0</v>
@@ -6372,22 +6351,22 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="B145" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F145" s="5">
         <v>30.0</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K145" s="7">
         <v>150.0</v>
@@ -6398,22 +6377,22 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="B146" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="F146" s="5">
         <v>30.0</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K146" s="7">
         <v>150.0</v>
@@ -6424,22 +6403,22 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="B147" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F147" s="5">
         <v>48.0</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K147" s="7">
         <v>150.0</v>
@@ -6450,25 +6429,25 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="B148" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F148" s="5">
         <v>48.0</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K148" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="L148" s="7" t="s">
         <v>23</v>
@@ -6476,22 +6455,22 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="B149" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F149" s="5">
         <v>48.0</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K149" s="7">
         <v>200.0</v>
@@ -6502,22 +6481,22 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="B150" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="F150" s="5">
         <v>48.0</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K150" s="7">
         <v>200.0</v>
@@ -6528,22 +6507,22 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="B151" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F151" s="5">
         <v>48.0</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K151" s="7">
         <v>200.0</v>
@@ -6554,25 +6533,25 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="B152" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F152" s="5">
         <v>45.0</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K152" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L152" s="7" t="s">
         <v>23</v>
@@ -6580,22 +6559,22 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="B153" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F153" s="5">
         <v>50.0</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K153" s="7">
         <v>150.0</v>
@@ -6606,22 +6585,22 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="B154" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="F154" s="5">
         <v>48.0</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K154" s="7">
         <v>150.0</v>
@@ -6632,25 +6611,25 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="B155" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F155" s="5">
         <v>45.0</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K155" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L155" s="7" t="s">
         <v>23</v>
@@ -6658,22 +6637,22 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="B156" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="F156" s="5">
         <v>45.0</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K156" s="7">
         <v>150.0</v>
@@ -6684,13 +6663,13 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="B157" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F157" s="5">
         <v>110.0</v>
@@ -6699,7 +6678,7 @@
         <v>64</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K157" s="7">
         <v>100.0</v>
@@ -6710,22 +6689,22 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="B158" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="F158" s="5">
         <v>62.0</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K158" s="7">
         <v>400.0</v>
@@ -6736,22 +6715,22 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="B159" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="F159" s="5">
         <v>60.0</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K159" s="7">
         <v>200.0</v>
@@ -6762,25 +6741,25 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="B160" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F160" s="5">
         <v>35.0</v>
       </c>
       <c r="H160" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="I160" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K160" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="I160" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K160" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="L160" s="7" t="s">
         <v>23</v>
@@ -6788,22 +6767,22 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="B161" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F161" s="5">
         <v>33.0</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="I161" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K161" s="7">
         <v>200.0</v>
@@ -6814,22 +6793,22 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="B162" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="F162" s="5">
         <v>72.0</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="I162" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K162" s="7">
         <v>400.0</v>
@@ -6840,13 +6819,13 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="B163" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F163" s="5">
         <v>83.0</v>
@@ -6855,24 +6834,24 @@
         <v>64</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K163" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L163" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="B164" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F164" s="5">
         <v>110.0</v>
@@ -6881,7 +6860,7 @@
         <v>64</v>
       </c>
       <c r="I164" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K164" s="7">
         <v>100.0</v>
@@ -6892,13 +6871,13 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="B165" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F165" s="5">
         <v>142.0</v>
@@ -6907,7 +6886,7 @@
         <v>64</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K165" s="7">
         <v>100.0</v>
@@ -6918,13 +6897,13 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="B166" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="F166" s="5">
         <v>80.0</v>
@@ -6933,10 +6912,10 @@
         <v>64</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K166" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L166" s="7" t="s">
         <v>23</v>
@@ -6944,13 +6923,13 @@
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="B167" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F167" s="5">
         <v>125.0</v>
@@ -6959,7 +6938,7 @@
         <v>64</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K167" s="7">
         <v>140.0</v>
@@ -6970,13 +6949,13 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="B168" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="F168" s="5">
         <v>160.0</v>
@@ -6985,7 +6964,7 @@
         <v>64</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K168" s="7">
         <v>250.0</v>
@@ -6996,13 +6975,13 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="B169" s="7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F169" s="5">
         <v>121.0</v>
@@ -7011,7 +6990,7 @@
         <v>64</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K169" s="7">
         <v>100.0</v>
@@ -7022,13 +7001,13 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="B170" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="F170" s="5">
         <v>88.0</v>
@@ -7037,7 +7016,7 @@
         <v>64</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K170" s="7">
         <v>140.0</v>
@@ -7048,13 +7027,13 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="B171" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F171" s="5">
         <v>88.0</v>
@@ -7063,24 +7042,24 @@
         <v>64</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K171" s="7">
         <v>140.0</v>
       </c>
       <c r="L171" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="B172" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F172" s="5">
         <v>176.0</v>
@@ -7089,7 +7068,7 @@
         <v>64</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K172" s="7">
         <v>250.0</v>
@@ -7100,13 +7079,13 @@
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="B173" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F173" s="5">
         <v>88.0</v>
@@ -7115,10 +7094,10 @@
         <v>64</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K173" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L173" s="7" t="s">
         <v>28</v>
@@ -7126,13 +7105,13 @@
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="B174" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="F174" s="5">
         <v>77.0</v>
@@ -7141,10 +7120,10 @@
         <v>64</v>
       </c>
       <c r="I174" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K174" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K174" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="L174" s="7" t="s">
         <v>23</v>
@@ -7152,13 +7131,13 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="B175" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F175" s="5">
         <v>110.0</v>
@@ -7167,7 +7146,7 @@
         <v>64</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K175" s="7">
         <v>100.0</v>
@@ -7178,13 +7157,13 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="B176" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="F176" s="5">
         <v>121.0</v>
@@ -7193,10 +7172,10 @@
         <v>64</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K176" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L176" s="7" t="s">
         <v>23</v>
@@ -7204,13 +7183,13 @@
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="B177" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F177" s="5">
         <v>88.0</v>
@@ -7219,7 +7198,7 @@
         <v>64</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K177" s="7">
         <v>100.0</v>
@@ -7230,13 +7209,13 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="B178" s="7" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="F178" s="5">
         <v>110.0</v>
@@ -7245,10 +7224,10 @@
         <v>64</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K178" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L178" s="7" t="s">
         <v>23</v>
@@ -7256,13 +7235,13 @@
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="B179" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F179" s="5">
         <v>88.0</v>
@@ -7271,10 +7250,10 @@
         <v>64</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K179" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L179" s="7" t="s">
         <v>23</v>
@@ -7282,13 +7261,13 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="B180" s="7" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="F180" s="5">
         <v>110.0</v>
@@ -7297,7 +7276,7 @@
         <v>64</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K180" s="7">
         <v>100.0</v>
@@ -7308,13 +7287,13 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="B181" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F181" s="5">
         <v>121.0</v>
@@ -7323,7 +7302,7 @@
         <v>64</v>
       </c>
       <c r="I181" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K181" s="7">
         <v>140.0</v>
@@ -7334,13 +7313,13 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="B182" s="7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="F182" s="5">
         <v>100.0</v>
@@ -7349,10 +7328,10 @@
         <v>64</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K182" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L182" s="7" t="s">
         <v>23</v>
@@ -7360,13 +7339,13 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="B183" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F183" s="5">
         <v>100.0</v>
@@ -7375,10 +7354,10 @@
         <v>64</v>
       </c>
       <c r="I183" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K183" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L183" s="7" t="s">
         <v>23</v>
@@ -7386,13 +7365,13 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="B184" s="7" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="F184" s="5">
         <v>99.0</v>
@@ -7401,24 +7380,24 @@
         <v>64</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K184" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L184" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="B185" s="7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="F185" s="5">
         <v>132.0</v>
@@ -7427,24 +7406,24 @@
         <v>64</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K185" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L185" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="B186" s="7" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F186" s="5">
         <v>126.0</v>
@@ -7453,24 +7432,24 @@
         <v>64</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K186" s="7">
         <v>125.0</v>
       </c>
       <c r="L186" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="B187" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="F187" s="5">
         <v>110.0</v>
@@ -7479,111 +7458,111 @@
         <v>64</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K187" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L187" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="B188" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F188" s="5">
         <v>70.0</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K188" s="7">
         <v>150.0</v>
       </c>
       <c r="L188" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="B189" s="7" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="F189" s="5">
         <v>55.0</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K189" s="7">
         <v>150.0</v>
       </c>
       <c r="L189" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="B190" s="7" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F190" s="5">
         <v>78.0</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I190" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K190" s="7">
         <v>200.0</v>
       </c>
       <c r="L190" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="B191" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="F191" s="5">
         <v>70.0</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K191" s="7">
         <v>100.0</v>
@@ -7594,25 +7573,25 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="B192" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F192" s="5">
         <v>85.0</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K192" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L192" s="7" t="s">
         <v>28</v>
@@ -7620,39 +7599,39 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="B193" s="7" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F193" s="5">
         <v>60.0</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="I193" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K193" s="7">
         <v>100.0</v>
       </c>
       <c r="L193" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="B194" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="F194" s="5">
         <v>121.0</v>
@@ -7661,7 +7640,7 @@
         <v>64</v>
       </c>
       <c r="I194" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K194" s="7">
         <v>120.0</v>
@@ -7672,13 +7651,13 @@
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="B195" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F195" s="5">
         <v>113.0</v>
@@ -7687,10 +7666,10 @@
         <v>64</v>
       </c>
       <c r="I195" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K195" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L195" s="7" t="s">
         <v>23</v>
@@ -7698,13 +7677,13 @@
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="B196" s="7" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="F196" s="5">
         <v>77.0</v>
@@ -7713,7 +7692,7 @@
         <v>64</v>
       </c>
       <c r="I196" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K196" s="7">
         <v>75.0</v>
@@ -7724,13 +7703,13 @@
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="B197" s="7" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F197" s="5">
         <v>91.0</v>
@@ -7739,10 +7718,10 @@
         <v>64</v>
       </c>
       <c r="I197" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K197" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L197" s="7" t="s">
         <v>23</v>
@@ -7750,13 +7729,13 @@
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="B198" s="7" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="F198" s="5">
         <v>118.0</v>
@@ -7765,10 +7744,10 @@
         <v>64</v>
       </c>
       <c r="I198" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K198" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L198" s="7" t="s">
         <v>23</v>
@@ -7776,22 +7755,22 @@
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="B199" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="F199" s="5">
         <v>90.0</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I199" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K199" s="7">
         <v>120.0</v>
@@ -7802,22 +7781,22 @@
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="B200" s="7" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="F200" s="5">
         <v>85.0</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I200" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K200" s="7">
         <v>120.0</v>
@@ -7828,22 +7807,22 @@
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="B201" s="7" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="F201" s="5">
         <v>65.0</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I201" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K201" s="7">
         <v>120.0</v>
@@ -7854,22 +7833,22 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="B202" s="7" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="F202" s="5">
         <v>75.0</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I202" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K202" s="7">
         <v>120.0</v>
@@ -7880,22 +7859,22 @@
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="B203" s="7" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F203" s="5">
         <v>75.0</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I203" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K203" s="7">
         <v>120.0</v>
@@ -7906,507 +7885,507 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="B204" s="7" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="F204" s="5">
         <v>75.0</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I204" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K204" s="7">
         <v>120.0</v>
       </c>
       <c r="L204" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="B205" s="7" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="F205" s="5">
         <v>60.0</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="I205" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K205" s="7">
         <v>160.0</v>
       </c>
       <c r="L205" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="B206" s="7" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="F206" s="5">
         <v>42.0</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="I206" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K206" s="7">
         <v>110.0</v>
       </c>
       <c r="L206" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="B207" s="7" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="F207" s="5">
         <v>30.0</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="I207" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K207" s="7">
         <v>110.0</v>
       </c>
       <c r="L207" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="B208" s="7" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="F208" s="5">
         <v>20.0</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="I208" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K208" s="7">
         <v>110.0</v>
       </c>
       <c r="L208" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="B209" s="7" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F209" s="5">
         <v>30.0</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="I209" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K209" s="7">
         <v>110.0</v>
       </c>
       <c r="L209" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="B210" s="7" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="F210" s="5">
         <v>48.0</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="I210" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K210" s="7">
         <v>110.0</v>
       </c>
       <c r="L210" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="B211" s="7" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F211" s="5">
         <v>40.0</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="I211" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K211" s="7">
         <v>110.0</v>
       </c>
       <c r="L211" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="B212" s="7" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="F212" s="5">
         <v>50.0</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="I212" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K212" s="7">
         <v>100.0</v>
       </c>
       <c r="L212" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="B213" s="7" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F213" s="5">
         <v>84.0</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="I213" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K213" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L213" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="B214" s="7" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F214" s="5">
         <v>36.0</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="I214" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K214" s="7">
         <v>110.0</v>
       </c>
       <c r="L214" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="B215" s="7" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F215" s="5">
         <v>50.0</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="I215" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K215" s="7">
         <v>100.0</v>
       </c>
       <c r="L215" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="B216" s="7" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="F216" s="5">
         <v>60.0</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="I216" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K216" s="7">
         <v>100.0</v>
       </c>
       <c r="L216" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="B217" s="7" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="F217" s="5">
         <v>45.0</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="I217" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K217" s="7">
         <v>100.0</v>
       </c>
       <c r="L217" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="B218" s="7" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="F218" s="5">
         <v>40.0</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="I218" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K218" s="7">
         <v>80.0</v>
       </c>
       <c r="L218" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="B219" s="7" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F219" s="5">
         <v>40.0</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="I219" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K219" s="7">
         <v>80.0</v>
       </c>
       <c r="L219" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="B220" s="7" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="F220" s="5">
         <v>40.0</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="I220" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K220" s="7">
         <v>80.0</v>
       </c>
       <c r="L220" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="B221" s="7" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F221" s="5">
         <v>40.0</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="I221" s="6" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="K221" s="7">
         <v>80.0</v>
       </c>
       <c r="L221" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="B222" s="7" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="F222" s="5">
         <v>30.0</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="I222" s="6" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="K222" s="7">
         <v>110.0</v>
       </c>
       <c r="L222" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="B223" s="7" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F223" s="5">
         <v>106.0</v>
@@ -8415,24 +8394,24 @@
         <v>64</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K223" s="7">
         <v>100.0</v>
       </c>
       <c r="L223" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="B224" s="7" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="F224" s="5">
         <v>121.0</v>
@@ -8441,24 +8420,24 @@
         <v>64</v>
       </c>
       <c r="I224" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="K224" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L224" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="B225" s="7" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F225" s="5">
         <v>94.0</v>
@@ -8467,24 +8446,24 @@
         <v>64</v>
       </c>
       <c r="I225" s="6" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K225" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L225" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="B226" s="7" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="F226" s="5">
         <v>187.0</v>
@@ -8493,24 +8472,24 @@
         <v>64</v>
       </c>
       <c r="I226" s="6" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="K226" s="7">
         <v>140.0</v>
       </c>
       <c r="L226" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
       <c r="B227" s="7" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="F227" s="5">
         <v>118.0</v>
@@ -8519,13 +8498,13 @@
         <v>64</v>
       </c>
       <c r="I227" s="6" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="K227" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L227" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1"/>

--- a/main/upload/upload.xlsx
+++ b/main/upload/upload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="723">
   <si>
     <t>id</t>
   </si>
@@ -87,22 +87,2104 @@
     <t>450; 250</t>
   </si>
   <si>
+    <t>Пролетарская; Ракетная</t>
+  </si>
+  <si>
+    <t>Суп - Харчо</t>
+  </si>
+  <si>
+    <t>Куринный бульон; курица; рис; лук; морковь;томатная паста; чеснок; специи</t>
+  </si>
+  <si>
+    <t>Ф.JPG</t>
+  </si>
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>Ракетная</t>
+  </si>
+  <si>
+    <t>Бульон куринный</t>
+  </si>
+  <si>
+    <t>Куринный бульон; курица; сухари; яйцо; зелень</t>
+  </si>
+  <si>
+    <t>IMG_0244.JPG</t>
+  </si>
+  <si>
+    <t>Ежедневно</t>
+  </si>
+  <si>
+    <t>Суп куринный с лапшой домашней</t>
+  </si>
+  <si>
+    <t>Куринный бульон; курица; картофель; лапша; лук; морковь; специи</t>
+  </si>
+  <si>
+    <t>IMG_0222.JPG</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Рассольник</t>
+  </si>
+  <si>
+    <t>Куринный бульон; картофель; маринованные огурцы; лук; морковь; специи</t>
+  </si>
+  <si>
+    <t>IMG_0543.JPG</t>
+  </si>
+  <si>
+    <t>Суп грибной</t>
+  </si>
+  <si>
+    <t>Грибной бульон; картофель; грибы; лук; морковь; специи</t>
+  </si>
+  <si>
+    <t>IMG_0865.JPG</t>
+  </si>
+  <si>
+    <t>Понедельник;Среда</t>
+  </si>
+  <si>
+    <t>Суп гороховый с копченостями</t>
+  </si>
+  <si>
+    <t>Куринный бульон; картофель; горох; лук; морковь; копчености; специи</t>
+  </si>
+  <si>
+    <t>IMG_0404.JPG</t>
+  </si>
+  <si>
+    <t>Среда;Пятница</t>
+  </si>
+  <si>
+    <t>Солянка домашняя</t>
+  </si>
+  <si>
+    <t>Куринный бульон; картофель; копчености; лук; морковь; маслины; томатная паста; лимон; консервированые огурцы; специи</t>
+  </si>
+  <si>
+    <t>IMG_0542.JPG</t>
+  </si>
+  <si>
+    <t>80; 60</t>
+  </si>
+  <si>
+    <t>Пятница;Четверг</t>
+  </si>
+  <si>
+    <t>Суп рыбный</t>
+  </si>
+  <si>
+    <t>Рыбный бульон; картофель; горбуша; лук ;морковь; специи</t>
+  </si>
+  <si>
+    <t>IMG_0788.JPG</t>
+  </si>
+  <si>
+    <t>Четверг;Понедельник</t>
+  </si>
+  <si>
+    <t>Щи из свежей капусты с картофелем</t>
+  </si>
+  <si>
+    <t>Куринный бульон; капуста; картофель; лук; морковь; томатная паста; помидор; специи</t>
+  </si>
+  <si>
+    <t>IMG_0216.JPG</t>
+  </si>
+  <si>
+    <t>Вторник;Четверг</t>
+  </si>
+  <si>
+    <t>Азу по татарски</t>
+  </si>
+  <si>
+    <t>Картофель; говядина; огурец маринованый; лук; томатная паста; специи</t>
+  </si>
+  <si>
+    <t>IMG_0724.JPG</t>
+  </si>
+  <si>
+    <t>Вторые блюда</t>
+  </si>
+  <si>
+    <t>Баклажан фаршированый</t>
+  </si>
+  <si>
+    <t>Баклажан; мясной фарш; овощи; сыр; майонез</t>
+  </si>
+  <si>
+    <t>IMG_1051.JPG</t>
+  </si>
+  <si>
+    <t>за 100</t>
+  </si>
+  <si>
+    <t>Свинина отбивная деликатесная</t>
+  </si>
+  <si>
+    <t>Свинной окорок; помидоры; перец болгарский; лук; яйцо; сыр; майонез; специи</t>
+  </si>
+  <si>
+    <t>IMG_0825.JPG</t>
+  </si>
+  <si>
+    <t>Свинина отбивная в картофельном кляре</t>
+  </si>
+  <si>
+    <t>Свинной окорок; картофель; яйцо; специи</t>
+  </si>
+  <si>
+    <t>IMG_0893.JPG</t>
+  </si>
+  <si>
+    <t>Гуляш</t>
+  </si>
+  <si>
+    <t>Говядина; лук; томатная паста; мука; специи</t>
+  </si>
+  <si>
+    <t>IMG_0279.JPG</t>
+  </si>
+  <si>
+    <t>75; 50</t>
+  </si>
+  <si>
+    <t>Зразы с яйцом</t>
+  </si>
+  <si>
+    <t>Фарш мясной; (говядина; свинной окорок; куринная грудка); яйцо; мука; специи</t>
+  </si>
+  <si>
+    <t>IMG_0907.JPG</t>
+  </si>
+  <si>
+    <t>Ежик мясной</t>
+  </si>
+  <si>
+    <t>Фарш мясной;(свинной окорок; куринная грудка; говядина); рис; лук; соус сметанно - томатный; специи</t>
+  </si>
+  <si>
+    <t>IMG_1282.JPG</t>
+  </si>
+  <si>
+    <t>60/20</t>
+  </si>
+  <si>
+    <t>Мясной стажок</t>
+  </si>
+  <si>
+    <t>Фарш мясной; (говядина; свинной окорок; куринная грудка); яйцо; лук; картофель; морковь; майонез; специи</t>
+  </si>
+  <si>
+    <t>IMG_0838.JPG</t>
+  </si>
+  <si>
+    <t>Драник с мясом</t>
+  </si>
+  <si>
+    <t>Картофель; фарш мясной; (говядина; свинной окорок; куринная грудка); яйцо; лук; специи</t>
+  </si>
+  <si>
+    <t>IMG_0265.JPG</t>
+  </si>
+  <si>
+    <t>Котлета мясная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фарш мясной; (говядина; свинной окорок; куринная грудка); лук; яйцо; хлеб; специи </t>
+  </si>
+  <si>
+    <t>IMG_0283.JPG</t>
+  </si>
+  <si>
+    <t>Бифштекс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фарш мясной; (говядина; свинной окорок; куринная грудка); лук; яйцо; специи </t>
+  </si>
+  <si>
+    <t>IMG_0970.JPG</t>
+  </si>
+  <si>
+    <t>Перец фаршированый</t>
+  </si>
+  <si>
+    <t>Перец болгарский; фарш мясной; (говядина; свинной окорок; куринная грудка); рис; лук; специи; соус</t>
+  </si>
+  <si>
+    <t>IMG_0816.JPG</t>
+  </si>
+  <si>
+    <t>Голубцы ленивые</t>
+  </si>
+  <si>
+    <t>Капуста; фарш мясной;(свинной окорок; куринная грудка; говядина); рис; лук; специи</t>
+  </si>
+  <si>
+    <t>IMG_0512.JPG</t>
+  </si>
+  <si>
+    <t>Бифштекс под сыром</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фарш мясной; (говядина; свинной окорок; куринная грудка); лук; яйцо; сыр; майонез; специи </t>
+  </si>
+  <si>
+    <t>IMG_0694.JPG</t>
+  </si>
+  <si>
+    <t>Бифштекс с грибами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фарш мясной; (говядина; свинной окорок; куринная грудка); шампиньоны консервированые; лук; яйцо; сыр; майонез; специи </t>
+  </si>
+  <si>
+    <t>IMG_0974.JPG</t>
+  </si>
+  <si>
+    <t>Компанье</t>
+  </si>
+  <si>
+    <t>Свинной окорок; куринная грудка; сыр; ветчина; чеснок; аджика; горчица; майонез</t>
+  </si>
+  <si>
+    <t>IMG_1202.JPG</t>
+  </si>
+  <si>
+    <t>Плов со свининой</t>
+  </si>
+  <si>
+    <t>Свинина; лук; морковь; рис; специи</t>
+  </si>
+  <si>
+    <t>IMG_0953.JPG</t>
+  </si>
+  <si>
+    <t>Свинина по домашнему</t>
+  </si>
+  <si>
+    <t>Свинной окорок; яйцо; мука; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>IMG_0704.JPG</t>
+  </si>
+  <si>
+    <t>Жаркое по домашнему</t>
+  </si>
+  <si>
+    <t>Свинной окорок; картофель; лук; морковь; томатная - паста; специи</t>
+  </si>
+  <si>
+    <t>IMG_1375.JPG</t>
+  </si>
+  <si>
+    <t>Мясо по французски</t>
+  </si>
+  <si>
+    <t>Свинной окорок; картофель; лук; морковь; помидоры; яйцо; сыр; майонез; специи</t>
+  </si>
+  <si>
+    <t>IMG_0192.JPG</t>
+  </si>
+  <si>
+    <t>Бигус со свининой</t>
+  </si>
+  <si>
+    <t>Капуста; свинной окорок; лук; морковь; томатная - паста; лавровый лист; специи</t>
+  </si>
+  <si>
+    <t>IMG_0215.JPG</t>
+  </si>
+  <si>
+    <t>Поджарка из свинины</t>
+  </si>
+  <si>
+    <t>Свинной окорок; лук; томатная - паста; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>IMG_0940.JPG</t>
+  </si>
+  <si>
+    <t>75/25</t>
+  </si>
+  <si>
+    <t>Рулет куринный</t>
+  </si>
+  <si>
+    <t>Красное мясо; майонез; сыр; чеснок; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>IMG_0844.JPG</t>
+  </si>
+  <si>
+    <t>Куринная грудка в картофельном кляре</t>
+  </si>
+  <si>
+    <t>Куринная грудка; яйцо; картофель; мука; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>IMG_1417.JPG</t>
+  </si>
+  <si>
+    <t>Куринная отбивная с помидорами</t>
+  </si>
+  <si>
+    <t>Куринная грудка; яйцо; сыр; майонез; помидоры; специи</t>
+  </si>
+  <si>
+    <t>IMG_1015.JPG</t>
+  </si>
+  <si>
+    <t>Куринная грудка в сырном кляре</t>
+  </si>
+  <si>
+    <t>Куринная грудка; яйцо; сыр; майонез; мука; специи</t>
+  </si>
+  <si>
+    <t>IMG_0194.JPG</t>
+  </si>
+  <si>
+    <t>Чахохбили</t>
+  </si>
+  <si>
+    <t>Куринный окорочок; лук; помидор; чеснок; зелень; вода</t>
+  </si>
+  <si>
+    <t>IMG_0247.JPG</t>
+  </si>
+  <si>
+    <t>Бифштекс куринный рубленый</t>
+  </si>
+  <si>
+    <t>Куринная грудка; майонез; крахмал; яйцо; лук; специи</t>
+  </si>
+  <si>
+    <t>IMG_0990.JPG</t>
+  </si>
+  <si>
+    <t>Куринная отбивная с маслинами</t>
+  </si>
+  <si>
+    <t>Куринная грудка; яйцо; сыр; майонез ;маслины консервированные; специи</t>
+  </si>
+  <si>
+    <t>IMG_0197.JPG</t>
+  </si>
+  <si>
+    <t>Куринное гнездо с яйцом</t>
+  </si>
+  <si>
+    <t>Куринная грудка; лук; чеснок; морковь; яйцо; сыр; майонез; специи</t>
+  </si>
+  <si>
+    <t>IMG_0869.JPG</t>
+  </si>
+  <si>
+    <t>Куринная отбивная с колбасой</t>
+  </si>
+  <si>
+    <t>Куринная грудка; лук; морковь; яйцо; сыр; майонез ;колбаса п/к; специи</t>
+  </si>
+  <si>
+    <t>IMG_1216.JPG</t>
+  </si>
+  <si>
+    <t>Куринная грудка облачко</t>
+  </si>
+  <si>
+    <t>Куринная грудка; яйцо; майонез; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>IMG_0855.JPG</t>
+  </si>
+  <si>
+    <t>Тефтели куринные</t>
+  </si>
+  <si>
+    <t>Куринная грудка; рис; лук; мука; масло растительное; соус; сметана; томатная - паста</t>
+  </si>
+  <si>
+    <t>IMG_1385.JPG</t>
+  </si>
+  <si>
+    <t>Бифштекс с яйцом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фарш мясной; (говядина; свинной окорок; куринная грудка); лук; яйцо; масло растительное; специи </t>
+  </si>
+  <si>
+    <t>IMG_0397.JPG</t>
+  </si>
+  <si>
+    <t>Пикантная колбаска</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фарш мясной; (говядина; свинной окорок; куринная грудка); лук; чеснок; яйцо; майонез; мука; специи </t>
+  </si>
+  <si>
+    <t>IMG_1232.JPG</t>
+  </si>
+  <si>
+    <t>Гречка с курицей и грибами</t>
+  </si>
+  <si>
+    <t>Гречка; куринная грудка ;лук; шампиньоны консервированые; масло сливочное</t>
+  </si>
+  <si>
+    <t>IMG_1024.JPG</t>
+  </si>
+  <si>
+    <t>Куринное гнездо с грибами</t>
+  </si>
+  <si>
+    <t>Куринная грудка; лук; яйцо; шампиньоны консервированные; сыр; майонез; специи</t>
+  </si>
+  <si>
+    <t>IMG_1325.JPG</t>
+  </si>
+  <si>
+    <t>Бифштекс из кеты</t>
+  </si>
+  <si>
+    <t>Кета с/м; майонез; яйцо; крахмал; лук; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>IMG_1001.JPG</t>
+  </si>
+  <si>
+    <t>Зразы с сыром</t>
+  </si>
+  <si>
+    <t>Фарш мясной; (говядина; свинной окорок; куринная грудка); майонез; зелень; сыр; масло растительное; мука; специи</t>
+  </si>
+  <si>
+    <t>IMG_0902.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Голубцы </t>
+  </si>
+  <si>
+    <t>IMG_0935.JPG</t>
+  </si>
+  <si>
+    <t>Бифштекс с помидорами</t>
+  </si>
+  <si>
+    <t>Фарш мясной; (говядина; свинной окорок; куринная грудка); помидоры; лук; яйцо; сыр; майонез; специи</t>
+  </si>
+  <si>
+    <t>IMG_0695.JPG</t>
+  </si>
+  <si>
+    <t>Бифштекс с овощами</t>
+  </si>
+  <si>
+    <t>Фарш мясной; (говядина; свинной окорок; куринная грудка); морковь; лук; яйцо; сыр; майонез; специи</t>
+  </si>
+  <si>
+    <t>IMG_0689.JPG</t>
+  </si>
+  <si>
+    <t>Куринная котлета</t>
+  </si>
+  <si>
+    <t>Куринная грудка; яйцо; лук; сухари понировачные; хлеб; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_0452.JPG</t>
+  </si>
+  <si>
+    <t>Куринная грудка Вкусняшка</t>
+  </si>
+  <si>
+    <t>Куринная грудка; яйцо; сухари понировачные; масло растительное; мука; специи</t>
+  </si>
+  <si>
+    <t>IMG_1040.JPG</t>
+  </si>
+  <si>
+    <t>Куринная отбивная с овощами</t>
+  </si>
+  <si>
+    <t>Куринная грудка; лук; морковь; яйцо; сыр; майонез ; специи</t>
+  </si>
+  <si>
+    <t>IMG_1013.JPG</t>
+  </si>
+  <si>
+    <t>Куринная грудка с овощами в соусе</t>
+  </si>
+  <si>
+    <t>Куринная грудка; лук; перец болгарский; помидоры; морковь; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>IMG_1597.JPG</t>
+  </si>
+  <si>
+    <t>75/50</t>
+  </si>
+  <si>
+    <t>Куринная отбивная с картофелем</t>
+  </si>
+  <si>
+    <t>Куринная грудка; картофель; овощи пассерованные; яйцо; сыр; майонез ; специи</t>
+  </si>
+  <si>
+    <t>IMG_1553.JPG</t>
+  </si>
+  <si>
+    <t>Свинина отбивная под овощами</t>
+  </si>
+  <si>
+    <t>Свинной окорок; морковь; лук; яйцо; сыр; масло растительное; мука; майонез; специи</t>
+  </si>
+  <si>
+    <t>IMG_1326.JPG</t>
+  </si>
+  <si>
+    <t>Свинина отбивная с помидорами</t>
+  </si>
+  <si>
+    <t>Свинной окорок; помидоры; лук; яйцо; сыр; масло растительное; мука; майонез; специи</t>
+  </si>
+  <si>
+    <t>IMG_1118.JPG</t>
+  </si>
+  <si>
+    <t>Свинина по-купечески</t>
+  </si>
+  <si>
+    <t>Свинной окорок; яйцо; сыр; майонез; шампиньоны консервированые; помидоры; лук; специи</t>
+  </si>
+  <si>
+    <t>IMG_0643.JPG</t>
+  </si>
+  <si>
+    <t>Свинина с овощами</t>
+  </si>
+  <si>
+    <t>Свинной окорок; помидоры; перец болгарский; морковь; лук; специи</t>
+  </si>
+  <si>
+    <t>IMG_0731.JPG</t>
+  </si>
+  <si>
+    <t>Оладьи из печени</t>
+  </si>
+  <si>
+    <t>Печень говяжья; лук; яйцо; мука; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>IMG_0511.JPG</t>
+  </si>
+  <si>
+    <t>Говядина с черносливом</t>
+  </si>
+  <si>
+    <t>Говядина; лук; томатная паста; чернослив; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>IMG_1115.JPG</t>
+  </si>
+  <si>
+    <t>Печень по домашнему</t>
+  </si>
+  <si>
+    <t>Печень говяжья; лук; морковь; яйцо; сыр; майонез; мука; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>IMG_1411.JPG</t>
+  </si>
+  <si>
+    <t>Колбаса жаренная</t>
+  </si>
+  <si>
+    <t>Колбаса вареная; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_0740.JPG</t>
+  </si>
+  <si>
+    <t>Котлета рыбная</t>
+  </si>
+  <si>
+    <t>Минтай с/м; лук; яйцо; сало; крупа манная; специи</t>
+  </si>
+  <si>
+    <t>IMG_0259.JPG</t>
+  </si>
+  <si>
+    <t>Кета под сыром</t>
+  </si>
+  <si>
+    <t>Минтай с/м; яйцо; сыр; майонез; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>IMG_0250.JPG</t>
+  </si>
+  <si>
+    <t>Скумбрия жаренная весовая</t>
+  </si>
+  <si>
+    <t>Скумбрия с/м; мука; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>IMG_1360.JPG</t>
+  </si>
+  <si>
+    <t>Минтай жаренный весовой</t>
+  </si>
+  <si>
+    <t>Минтай с/м; мука; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>IMG_0733.JPG</t>
+  </si>
+  <si>
+    <t>Камбала жаренная весовая</t>
+  </si>
+  <si>
+    <t>Камбала с/м; мука; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>IMG_0462.JPG</t>
+  </si>
+  <si>
+    <t>Кета в кляре</t>
+  </si>
+  <si>
+    <t>Кета с/м; майонез; яйцо; мука; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>IMG_0864.JPG</t>
+  </si>
+  <si>
+    <t>Минтай под грибной шубкой</t>
+  </si>
+  <si>
+    <t>Минтай с/м; яйцо; сыр; майонез; лук; шампиньоны консервированные; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>IMG_0966.JPG</t>
+  </si>
+  <si>
+    <t>Котлета из кеты</t>
+  </si>
+  <si>
+    <t>Кета с/м; свиной окорок; крупа манная; яйцо; майонез; специи</t>
+  </si>
+  <si>
+    <t>Яйцо жаренное</t>
+  </si>
+  <si>
+    <t>Яйцо; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_1125.JPG</t>
+  </si>
+  <si>
+    <t>Каштанка рыбная</t>
+  </si>
+  <si>
+    <t>Минтай с/м; яйцо; майонез; лук; крупа манная; зелень; сухари; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>IMG_0657.JPG</t>
+  </si>
+  <si>
+    <t>Минтай с овощами</t>
+  </si>
+  <si>
+    <t>Минтай с/м; яйцо; майонез; сыр; лук; морковь; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>IMG_1538.JPG</t>
+  </si>
+  <si>
+    <t>Кета жаренная весовая</t>
+  </si>
+  <si>
+    <t>Кета с/м; мука; масло растительное; лимон; специи</t>
+  </si>
+  <si>
+    <t>IMG_0709.JPG</t>
+  </si>
+  <si>
+    <t>Кета с овощами</t>
+  </si>
+  <si>
+    <t>Кета с/м; морковь; лук; майонез; яйцо; сыр; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>Тефтель рыбный</t>
+  </si>
+  <si>
+    <t>Кета с/м; рис; лук; мука; масло растительное; сметана; томатная-паста</t>
+  </si>
+  <si>
+    <t>IMG_0961.JPG</t>
+  </si>
+  <si>
+    <t>Кальмар фаршированный</t>
+  </si>
+  <si>
+    <t>Кальмары; майонез; кукуруза, горошек консервированные; рис; лук; морковь; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>IMG_1031.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Греческий"</t>
+  </si>
+  <si>
+    <t>Маслины консервированные; орех грецкий; пекинская капуста; перец болгарский; помидоры; огурцы свежие; сыр; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_1193.JPG</t>
+  </si>
+  <si>
+    <t>Салаты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      новое</t>
+  </si>
+  <si>
+    <t>Салат "Оливье"</t>
+  </si>
+  <si>
+    <t>Картофель; морковь; яйцо; огурцы свежие; колбаса вареная; горошек консервированный; зелень; майонез</t>
+  </si>
+  <si>
+    <t>IMG_1097.JPG</t>
+  </si>
+  <si>
+    <t>Сельдь с луком</t>
+  </si>
+  <si>
+    <t>Лук; сельдь; масло растительное; горошек консервированый</t>
+  </si>
+  <si>
+    <t>IMG_1028.JPG</t>
+  </si>
+  <si>
+    <t>Закуска холодная</t>
+  </si>
+  <si>
+    <t>Салат "Сельдь под шубой"</t>
+  </si>
+  <si>
+    <t>Сельдь; свекла; морковь; майонез; картофель; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1189.JPG</t>
+  </si>
+  <si>
+    <t>Винегрет</t>
+  </si>
+  <si>
+    <t>Картофель; свекла; морковь; огурец маринованный; лук; капуста;горошек консервированный; масло растительное; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1074.JPG</t>
+  </si>
+  <si>
+    <t>Винегрет с сельдью</t>
+  </si>
+  <si>
+    <t>Картофель; свекла; морковь; огурец маринованный; лук; капуста;горошек консервированный; масло растительное; зелень; сельдь</t>
+  </si>
+  <si>
+    <t>IMG_1078.JPG</t>
+  </si>
+  <si>
+    <t>60/60</t>
+  </si>
+  <si>
+    <t>Салат "Морковно сырный"</t>
+  </si>
+  <si>
+    <t>Морковь; чеснок; сыр; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1579.JPG</t>
+  </si>
+  <si>
+    <t>Морковь по корейски</t>
+  </si>
+  <si>
+    <t>Морковь; перец красный молотый; чеснок; масло растительное; уксусная кислота; специи</t>
+  </si>
+  <si>
+    <t>IMG_1099.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Свекла с яйцом"</t>
+  </si>
+  <si>
+    <t>Свекла; яйцо; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1222.JPG</t>
+  </si>
+  <si>
+    <t>Яйцо под майонезом</t>
+  </si>
+  <si>
+    <t>Яйцо; зелень; майонез</t>
+  </si>
+  <si>
+    <t>IMG_1205.JPG</t>
+  </si>
+  <si>
+    <t>Салат из морской капусты с яйцом</t>
+  </si>
+  <si>
+    <t>Морская капуста; яйцо; зелень; майонез</t>
+  </si>
+  <si>
+    <t>IMG_0370.JPG</t>
+  </si>
+  <si>
+    <t>Салат из морской капусты с морковчой</t>
+  </si>
+  <si>
+    <t>Морская капуста; яйцо; зелень; майонез; морковь по корейский</t>
+  </si>
+  <si>
+    <t>IMG_1241.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Пекин"</t>
+  </si>
+  <si>
+    <t>Фунчоза; огурцы свежие; перец болгарский; морковь по корейский; соевый соус; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1703.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Салат "Витаминный" </t>
+  </si>
+  <si>
+    <t>Капуста; морковь; помидоры; масло растительное; уксусная кислота; специи</t>
+  </si>
+  <si>
+    <t>IMG_1331.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Мозайка"</t>
+  </si>
+  <si>
+    <t>Помидор; крабовые палочки; яйцо; сыр; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1338.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Мимоза"</t>
+  </si>
+  <si>
+    <t>Морковь; яйцо; сайра консервированная; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1333.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Царская радость"</t>
+  </si>
+  <si>
+    <t>Крабовые палочки; яйцо; майонез; зелень; икра горбуши; кальмар отварной; лимон</t>
+  </si>
+  <si>
+    <t>IMG_1508.JPG</t>
+  </si>
+  <si>
+    <t>Салат из кальмара с крабовыми палочками</t>
+  </si>
+  <si>
+    <t>Кольмар отварной; крабовые палочки; горошек консервированный; яйцо; майонез; зелень; огурец свежий</t>
+  </si>
+  <si>
+    <t>IMG_1587.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Аленка"</t>
+  </si>
+  <si>
+    <t>Шампиньоны консервированные; крабовые палочки; лук; яйцо; огурец свежий; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1346.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Крабик"</t>
+  </si>
+  <si>
+    <t>Крабовые палочки; яйцо; майонез; зелень; яблоко; сыр; кукуруза консервированная</t>
+  </si>
+  <si>
+    <t>IMG_1651.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Наводнение"</t>
+  </si>
+  <si>
+    <t>Морская капуста; яйцо; крабовые палочки; лук зеленый; чеснок; майонез</t>
+  </si>
+  <si>
+    <t>IMG_1068.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Себастьян"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Огурец свежий; яйцо; кальмар отварной; майонез; зелень </t>
+  </si>
+  <si>
+    <t>IMG_1574.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Фантазия"</t>
+  </si>
+  <si>
+    <t>Крабовые палочки; помидор; пекинская капуста; кукуруза консервированная; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1526.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Красное море"</t>
+  </si>
+  <si>
+    <t>Крабовые палочки; помидор; перец болгарский; чеснок; сыр;  майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1649.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Бриз"</t>
+  </si>
+  <si>
+    <t>Крабовые палочки; огурец свежий; рис;  кукуруза консервированная; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1243.JPG</t>
+  </si>
+  <si>
+    <t>Салат крабовый с ветчиной</t>
+  </si>
+  <si>
+    <t>Крабовые палочки; огурец свежий; ветчина; чеснок; кукуруза консервированная; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1268.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Огонек"</t>
+  </si>
+  <si>
+    <t>Перец болгарский; морковь; помидор; лук; колбаса п/к; чеснок; масло раститетельное; специи</t>
+  </si>
+  <si>
+    <t>IMG_1657.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Осень"</t>
+  </si>
+  <si>
+    <t>Морковь; колбаса п/к; огурец свежий; кукуруза консервированная; сыр; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1582.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Грузинская долина"</t>
+  </si>
+  <si>
+    <t>Помидор; чеснок; ветчина; майонез; сыр; яйцо; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1273.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Грибной"</t>
+  </si>
+  <si>
+    <t>Шампиньоны консервированные; колбаса п/к; лук; сыр; огурец свежий; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_0833.JPG</t>
+  </si>
+  <si>
+    <t>Салат из фасоли с сухариками</t>
+  </si>
+  <si>
+    <t>Фасоль консервированная; кукуруза консервированная; помидор; ветчина; чеснок; сухарики; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_0890.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Клепа"</t>
+  </si>
+  <si>
+    <t>Свинина; огурец свежий; помидор; майонез; зелень; морковь; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_1628.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Нежность"</t>
+  </si>
+  <si>
+    <t>Колбаса п/к; омлетная лента; лук; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_0762.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Наслаждение"</t>
+  </si>
+  <si>
+    <t>Колбаса п/к; лук; огурец свежий; яйцо; сыр; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1476.JPG</t>
+  </si>
+  <si>
+    <t>Салат из копченой курицы с болгарским перцем</t>
+  </si>
+  <si>
+    <t>Куринная грудка п/к; шампиньоны консервированные; лук; перец болгарский; помидор; яйцо; чеснок; майонез; зелень; специи</t>
+  </si>
+  <si>
+    <t>IMG_0739.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Мушкетерский"</t>
+  </si>
+  <si>
+    <t>Куринная грудка; лук; картофель; морковь; помидор; майонез; зелень; специи</t>
+  </si>
+  <si>
+    <t>IMG_0747.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Лисичка"</t>
+  </si>
+  <si>
+    <t>Куринная грудка; морковь по карейски; огурец маринованный; сыр; чеснок; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1639.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Юлия"</t>
+  </si>
+  <si>
+    <t>Куринная грудка; огурец свежий; сыр; яйцо; чеснок; майонез; ветчина; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1682.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Гнездо глухаря"</t>
+  </si>
+  <si>
+    <t>Куринная грудка; морковь; огурец маринованный; горошек консервированный; яйцо; майонез; картофель пай</t>
+  </si>
+  <si>
+    <t>IMG_1466.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Дамка"</t>
+  </si>
+  <si>
+    <t>Куринная грудка; яйцо; огурец свежий; ананас консервированный; сыр; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_0981.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Деревенский"</t>
+  </si>
+  <si>
+    <t>Говядина; редька маргеланская; лук; майонез; морковь; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1636.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Дамская мечта"</t>
+  </si>
+  <si>
+    <t>Говядина; морковь по корейски; огурец свежий; яйцо; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1630.JPG</t>
+  </si>
+  <si>
+    <t>Салат со свининой</t>
+  </si>
+  <si>
+    <t>Свинина; морковь; лук; майонез; зелень; специи</t>
+  </si>
+  <si>
+    <t>IMG_1481.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Кардинал"</t>
+  </si>
+  <si>
+    <t>Говядина; помидор; огурец свежий; перец болгарский; лук; сыр; масло растительное; зелень</t>
+  </si>
+  <si>
+    <t>IMG_0998.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Королевский"</t>
+  </si>
+  <si>
+    <t>Говядина; огурец маринованный; помидор; лук; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_0847.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Пикантный"</t>
+  </si>
+  <si>
+    <t>Говядина; огурец маринованный; лук; перец болгарский; зелень; масло растительное; чеснок; специи</t>
+  </si>
+  <si>
+    <t>IMG_1315.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Цветик семицветик"</t>
+  </si>
+  <si>
+    <t>Говядина; морковь по корейски; огурец свежий; сыр; помидор; зелень; чеснок; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>IMG_1220.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Мужской каприз"</t>
+  </si>
+  <si>
+    <t>Говядина; сыр; яйцо; лук; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1127.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Мясной"</t>
+  </si>
+  <si>
+    <t>Говядина; картофель; морковь; огурец маринованный; горошек консервированный; яйцо; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1568.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Гусарский"</t>
+  </si>
+  <si>
+    <t>Говядина; помидор; огурец свежий; кукуруза консервированная; зелень; чеснок; специи</t>
+  </si>
+  <si>
+    <t>IMG_1643.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Краски вкуса"</t>
+  </si>
+  <si>
+    <t>Говядина; помидор; перец болгарский; морковь по корейски; чеснок; сыр; майонез; зелень; специи</t>
+  </si>
+  <si>
+    <t>IMG_0356.JPG</t>
+  </si>
+  <si>
+    <t>Салат из печени со сладким перцем</t>
+  </si>
+  <si>
+    <t>Печень куринная; орех грецкий; майонез; лук; перец болгарский; помидор</t>
+  </si>
+  <si>
+    <t>IMG_1697.JPG</t>
+  </si>
+  <si>
+    <t>Салат из печени с морковчой</t>
+  </si>
+  <si>
+    <t>Печень говяжья; морковь по корейски; огурец маринованный; чеснок; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1102.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Листопад"</t>
+  </si>
+  <si>
+    <t>Печень куринная; лук; шампиньоны консервированные; картофель; морковь по корейски; фасоль консервированная; чипсы; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1624.JPG</t>
+  </si>
+  <si>
+    <t>Салат из печени</t>
+  </si>
+  <si>
+    <t>Печень говяжья; морковь; лук; огурец маринованный; чеснок; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_0737.JPG</t>
+  </si>
+  <si>
+    <t>Салат "Овощной"</t>
+  </si>
+  <si>
+    <t>Огурцы свежие; помидор; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1194.JPG</t>
+  </si>
+  <si>
+    <t>Салат из ветчины с помидорами</t>
+  </si>
+  <si>
+    <t>Ветчина; помидор; сыр; майонез; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1677.JPG</t>
+  </si>
+  <si>
+    <t>Сухари</t>
+  </si>
+  <si>
+    <t>Хлеб; чеснок; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>IMG_0340.JPG</t>
+  </si>
+  <si>
+    <t>Добавка</t>
+  </si>
+  <si>
+    <t>Зелень</t>
+  </si>
+  <si>
+    <t>Укроп; петрушка; лук зеленый</t>
+  </si>
+  <si>
+    <t>IMG_0586.JPG</t>
+  </si>
+  <si>
+    <t>Сало соленое</t>
+  </si>
+  <si>
+    <t>Сало; чеснок; специи</t>
+  </si>
+  <si>
+    <t>IMG_1046.JPG</t>
+  </si>
+  <si>
+    <t>Сало копченое</t>
+  </si>
+  <si>
+    <t>Сало; специи</t>
+  </si>
+  <si>
+    <t>IMG_1049.JPG</t>
+  </si>
+  <si>
     <t>Пролетарская</t>
   </si>
   <si>
-    <t>Суп - Харчо</t>
-  </si>
-  <si>
-    <t>Куринный бульон; курица; рис; лук; морковь;томатная паста; чеснок; специи</t>
-  </si>
-  <si>
-    <t>Ф.JPG</t>
-  </si>
-  <si>
-    <t>Понедельник</t>
-  </si>
-  <si>
-    <t>Ракетная</t>
+    <t>Картофельное пюре</t>
+  </si>
+  <si>
+    <t>Картофель; молоко; сливочное масло; соль</t>
+  </si>
+  <si>
+    <t>IMG_0202.JPG</t>
+  </si>
+  <si>
+    <t>Гарнир</t>
+  </si>
+  <si>
+    <t>Макароны отварные</t>
+  </si>
+  <si>
+    <t>Макароны твердых сортов; масло сливочное; соль</t>
+  </si>
+  <si>
+    <t>IMG_0212.JPG</t>
+  </si>
+  <si>
+    <t>Гречка отварная</t>
+  </si>
+  <si>
+    <t>Гречка; соль; масло сливочное</t>
+  </si>
+  <si>
+    <t>IMG_0210.JPG</t>
+  </si>
+  <si>
+    <t>Рис отварной</t>
+  </si>
+  <si>
+    <t>Рис; соль; масло сливочное</t>
+  </si>
+  <si>
+    <t>IMG_0205.JPG</t>
+  </si>
+  <si>
+    <t>Капуста тушеная</t>
+  </si>
+  <si>
+    <t>Капуста свежая; лук; морковь; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>Сложный гарнир</t>
+  </si>
+  <si>
+    <t>Картофельное пюре; капуста тушеная</t>
+  </si>
+  <si>
+    <t>IMG_0201.JPG</t>
+  </si>
+  <si>
+    <t>75/75</t>
+  </si>
+  <si>
+    <t>Перловка отварная овощами</t>
+  </si>
+  <si>
+    <t>Крупа перловая; лук; морковь; перец болгарский</t>
+  </si>
+  <si>
+    <t>IMG_0522.JPG</t>
+  </si>
+  <si>
+    <t>Рис с овощами</t>
+  </si>
+  <si>
+    <t>Рис; морковь;горошек консервированный; кукуруза консервированная; перец болгарский</t>
+  </si>
+  <si>
+    <t>IMG_0207.JPG</t>
+  </si>
+  <si>
+    <t>Горошница</t>
+  </si>
+  <si>
+    <t>Горох; соль; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_0419.JPG</t>
+  </si>
+  <si>
+    <t>Картофельные дольки</t>
+  </si>
+  <si>
+    <t>Картофель; масло растительное; чеснок; зелень; специи</t>
+  </si>
+  <si>
+    <t>IMG_0487.JPG</t>
+  </si>
+  <si>
+    <t>Макароны по итальянский</t>
+  </si>
+  <si>
+    <t>Макароны твердых сортов; морковь; перец болгарский; лук; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_0614.JPG</t>
+  </si>
+  <si>
+    <t>Картофель с зеленью</t>
+  </si>
+  <si>
+    <t>Картофель; масло сливочное; зелень; соль</t>
+  </si>
+  <si>
+    <t>IMG_0946.JPG</t>
+  </si>
+  <si>
+    <t>Картофель жаренный</t>
+  </si>
+  <si>
+    <t>Картофель; масло растительное; специи</t>
+  </si>
+  <si>
+    <t>IMG_0524.JPG</t>
+  </si>
+  <si>
+    <t>Спагетти с сыром</t>
+  </si>
+  <si>
+    <t>Макароны твердых сортов; сыр; соль; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_0526.JPG</t>
+  </si>
+  <si>
+    <t>Куринно рубленный бифштекс с сыром</t>
+  </si>
+  <si>
+    <t>Куринная грудка; сыр; яйцо; крахмал; майонез; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_1256.JPG</t>
+  </si>
+  <si>
+    <t>Компот в бутылке</t>
+  </si>
+  <si>
+    <t>Сухофрукты; сахар; лимонная кислота</t>
+  </si>
+  <si>
+    <t>IMG_1266.JPG</t>
+  </si>
+  <si>
+    <t>Напитки</t>
+  </si>
+  <si>
+    <t>Авторский чай с облепихой</t>
+  </si>
+  <si>
+    <t>Облепиха; мята; апельсин</t>
+  </si>
+  <si>
+    <t>IMG_0599.JPG</t>
+  </si>
+  <si>
+    <t>Чай с лимоном</t>
+  </si>
+  <si>
+    <t>Чай Greenfield; лимон</t>
+  </si>
+  <si>
+    <t>IMG_0334.JPG</t>
+  </si>
+  <si>
+    <t>200/10</t>
+  </si>
+  <si>
+    <t>Сок в ассортименте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок </t>
+  </si>
+  <si>
+    <t>IMG_0314.JPG</t>
+  </si>
+  <si>
+    <t>Напиток в бутылке</t>
+  </si>
+  <si>
+    <t>Брусника; сахар; лимонная кислота</t>
+  </si>
+  <si>
+    <t>IMG_0952.JPG</t>
+  </si>
+  <si>
+    <t>Помидор фаршированный</t>
+  </si>
+  <si>
+    <t>Помидор; фарш куриный; сыр;</t>
+  </si>
+  <si>
+    <t>IMG_0820.JPG</t>
+  </si>
+  <si>
+    <t>Мясо фри</t>
+  </si>
+  <si>
+    <t>Свинина; лук репчатый; морковь; яйцо; майонез; специи;</t>
+  </si>
+  <si>
+    <t>IMG_1436.JPG</t>
+  </si>
+  <si>
+    <t>Эскалоп</t>
+  </si>
+  <si>
+    <t>Свинина; помидор; специи;</t>
+  </si>
+  <si>
+    <t>IMG_1515.JPG</t>
+  </si>
+  <si>
+    <t>Запеканка картофельная с фаршем</t>
+  </si>
+  <si>
+    <t>Картофель; фарш мясной; помидор; специи;</t>
+  </si>
+  <si>
+    <t>IMG_0269.JPG</t>
+  </si>
+  <si>
+    <t>Зраза с грибами</t>
+  </si>
+  <si>
+    <t>Фарш мясной; шампиньоны; специи; сухари панировочные;</t>
+  </si>
+  <si>
+    <t>IMG_1086.JPG</t>
+  </si>
+  <si>
+    <t>Бифштекс по королевски</t>
+  </si>
+  <si>
+    <t>Фарш мясной; картофельное пюре; помидор; сыр;</t>
+  </si>
+  <si>
+    <t>IMG_1450.JPG</t>
+  </si>
+  <si>
+    <t>Мясной рулет с грибами</t>
+  </si>
+  <si>
+    <t>Фарш мясной; шампиньоны; сыр; специи;</t>
+  </si>
+  <si>
+    <t>IMG_1519.JPG</t>
+  </si>
+  <si>
+    <t>Котлета по киевски</t>
+  </si>
+  <si>
+    <t>Куриный фарш; масло сливочное; укроп; сухари; панировочные</t>
+  </si>
+  <si>
+    <t>IMG_0363.JPG</t>
+  </si>
+  <si>
+    <t>Драник с ветчиной</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Картофель; яйцо ;ветчина; сыр; специи; </t>
+  </si>
+  <si>
+    <t>IMG_0263.JPG</t>
+  </si>
+  <si>
+    <t>Пролетаская;Ракетная;</t>
+  </si>
+  <si>
+    <t>Плов с говядиной</t>
+  </si>
+  <si>
+    <t>Рис; говядина; лук;морковь; масло растительное; специи;</t>
+  </si>
+  <si>
+    <t>Рулет из скумбрии</t>
+  </si>
+  <si>
+    <t>Скумбрия; лук пассерованный; морковь пассерованная; майонез; специи;</t>
+  </si>
+  <si>
+    <t>IMG_1366.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Куриный окорок </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Куриный окорок; майонез; чеснок; специи; </t>
+  </si>
+  <si>
+    <t>IMG_0411.JPG</t>
+  </si>
+  <si>
+    <t>Куриный бифштекс с сыром</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Куриная грудка; сыр ;майонез; яйцо; специи; </t>
+  </si>
+  <si>
+    <t>IMG_1258.JPG</t>
+  </si>
+  <si>
+    <t>Кета тушеная с овощами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кета; перец болгарский; морковь; помидор; специи; масло растительное; </t>
+  </si>
+  <si>
+    <t>IMG_0537.JPG</t>
+  </si>
+  <si>
+    <t>Лодочка из кеты</t>
+  </si>
+  <si>
+    <t>Фарш рыбный; яйцо; сыр; специи; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_0611.JPG</t>
+  </si>
+  <si>
+    <t>Куриная котлета под омлетом</t>
+  </si>
+  <si>
+    <t>Фарш куриный; яйцо; молоко; специи; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_0959.JPG</t>
+  </si>
+  <si>
+    <t>Окорок куриный в тесте</t>
+  </si>
+  <si>
+    <t>Окорок куриный; тесто слоеное; специи; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_1492.JPG</t>
+  </si>
+  <si>
+    <t>Жульен с курицей и грибами</t>
+  </si>
+  <si>
+    <t>Булочка дрожжевая; филе курицы; шампиньоны; лук репчатый; сливки; масло сливочное; сыр</t>
+  </si>
+  <si>
+    <t>IMG_1319.JPG</t>
+  </si>
+  <si>
+    <t>Куриная зраза с ветчиной</t>
+  </si>
+  <si>
+    <t>Фарш куриный; ветчина; сыр; специи; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_1363.JPG</t>
+  </si>
+  <si>
+    <t>Шашлык куриный</t>
+  </si>
+  <si>
+    <t>Красное мясо; специи; лук маринованный; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_0380.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курочка радуга </t>
+  </si>
+  <si>
+    <t>Филе грудки; шампиньоны; перец болгарский; брокколи; специи; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_0529.JPG</t>
+  </si>
+  <si>
+    <t>Шампиньоны жареные</t>
+  </si>
+  <si>
+    <t>Шампиньоны, лук репчатый; специи; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_0927.JPG</t>
+  </si>
+  <si>
+    <t>Пролетарская;Ракетная</t>
+  </si>
+  <si>
+    <t>Нагенсы</t>
+  </si>
+  <si>
+    <t>Куриная грудка; специи; масло растительное; гурмикс</t>
+  </si>
+  <si>
+    <t>IMG_0752.JPG</t>
+  </si>
+  <si>
+    <t>Сердечки куриные в соусе</t>
+  </si>
+  <si>
+    <t>Сердечки куриные; лук репчатый; сметана; специи; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_0272.JPG</t>
+  </si>
+  <si>
+    <t>Куриный рулет с яйцом</t>
+  </si>
+  <si>
+    <t>Фарш куриный; яйцо; лук репчатый; кукуруза консервированная; специи; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_0879.JPG</t>
+  </si>
+  <si>
+    <t>Фасоль стручковая с овощами</t>
+  </si>
+  <si>
+    <t>Фасоль стручковая; морковь; перец болгарский; лук репчатый; специи; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_0977.JPG</t>
+  </si>
+  <si>
+    <t>Фасоль отварная с овощами</t>
+  </si>
+  <si>
+    <t>Фасоль красная; морковь; перец болгарский; лук репчатый; специи; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_0208.JPG</t>
+  </si>
+  <si>
+    <t>Овощное рагу</t>
+  </si>
+  <si>
+    <t>Капуста; баклажан; кабачок; перец болгарский; картофель; лук; морковь; специи; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_0923.JPG</t>
+  </si>
+  <si>
+    <t>Картофельная зраза с грибами</t>
+  </si>
+  <si>
+    <t>Картофельное пюре; шампиньоны жареные; яйцо; сухари панировочные</t>
+  </si>
+  <si>
+    <t>IMG_1611.JPG</t>
+  </si>
+  <si>
+    <t>Меренговый рулет</t>
+  </si>
+  <si>
+    <t>Белок куриный; сахар; крахмал кукурузный; сливки; сыр творожный; сахарная пудра</t>
+  </si>
+  <si>
+    <t>IMG_1463.JPG</t>
+  </si>
+  <si>
+    <t>Выпечка</t>
+  </si>
+  <si>
+    <t>Сочень с творогом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маргарин; сахар; майонез; мука; разрыхлитель; творог </t>
+  </si>
+  <si>
+    <t>IMG_1185.JPG</t>
+  </si>
+  <si>
+    <t>Люля-кебаб</t>
+  </si>
+  <si>
+    <t>Фарш мясной; петрушка; зира; специи; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_1298.JPG</t>
+  </si>
+  <si>
+    <t>Кальмар в соусе</t>
+  </si>
+  <si>
+    <t>Кальмар; лук репчатый; сметана; специи; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_1067.JPG</t>
+  </si>
+  <si>
+    <t>Котлета из щуки</t>
+  </si>
+  <si>
+    <t>Фарш рыбный; специи; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_0274.JPG</t>
+  </si>
+  <si>
+    <t>Поджарка из минтая</t>
+  </si>
+  <si>
+    <t>Минтай филе; лук репчатый; специи; масло растительное; мука</t>
+  </si>
+  <si>
+    <t>IMG_0941.JPG</t>
+  </si>
+  <si>
+    <t>Печень с овощами</t>
+  </si>
+  <si>
+    <t>Печень куриная; лук репчатый; морковь; специи; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_0286.JPG</t>
+  </si>
+  <si>
+    <t>Салат Вкуснятина с курицей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Куриная грудка п/к; помидоры; крабовые палочки; сыр; яйцо; перец болгарский; зелень; майонез; соль; перец черный </t>
+  </si>
+  <si>
+    <t>IMG_1751.JPG</t>
+  </si>
+  <si>
+    <t>Салат Свинина с сухариками</t>
+  </si>
+  <si>
+    <t>Свинина жареная; яйцо; помидоры; пекинская капуста; сыр российский; сухарики; соль; перец черный; зелень; майонез</t>
+  </si>
+  <si>
+    <t>IMG_1727.JPG</t>
+  </si>
+  <si>
+    <t>Салат из редьки</t>
+  </si>
+  <si>
+    <t>Редька маргеланская; морковь свежая; сметана; соль; зелень</t>
+  </si>
+  <si>
+    <t>IMG_1495.JPG</t>
+  </si>
+  <si>
+    <t>Салат Обжорка</t>
+  </si>
+  <si>
+    <t>Сыр колбасный; фасоль консервированная; колбаса п/к; яйцо; капуста свежая; зелень; соль; перц черный; майонез</t>
+  </si>
+  <si>
+    <t>IMG_1730.JPG</t>
+  </si>
+  <si>
+    <t>Салат Одно мгновение</t>
+  </si>
+  <si>
+    <t>Морковь по корейски; фасоль консервиованная; колбаса п/к; огурец маринованый; сухарики; зелень; майонез</t>
+  </si>
+  <si>
+    <t>IMG_1714.JPG</t>
+  </si>
+  <si>
+    <t>Салат С кириешками</t>
+  </si>
+  <si>
+    <t>Шпроты; морковь отварная; яйцо; сухарики; огурец маринованый; зелень; майонез</t>
+  </si>
+  <si>
+    <t>IMG_1761.JPG</t>
+  </si>
+  <si>
+    <t>Пицца</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тесто дрожжевое; сосиски молочные;  помидоры; сыр; майонез; </t>
+  </si>
+  <si>
+    <t>IMG_1446.JPG</t>
+  </si>
+  <si>
+    <t>Пирог с печенью</t>
+  </si>
+  <si>
+    <t>Тесто дрожжевое; начинка из печени</t>
+  </si>
+  <si>
+    <t>IMG_1437.JPG</t>
+  </si>
+  <si>
+    <t>Булочка с маком</t>
+  </si>
+  <si>
+    <t>Тесто дрожжевое; начинка из мака</t>
+  </si>
+  <si>
+    <t>IMG_1151.JPG</t>
+  </si>
+  <si>
+    <t>Булочка с сахаром</t>
+  </si>
+  <si>
+    <t>Тесто дрожжевое; сахар; льезон</t>
+  </si>
+  <si>
+    <t>IMG_1167.JPG</t>
+  </si>
+  <si>
+    <t>Угольник с яблоком</t>
+  </si>
+  <si>
+    <t>Тесто дрожжевое; начинка яблочная</t>
+  </si>
+  <si>
+    <t>IMG_1443.JPG</t>
+  </si>
+  <si>
+    <t>Пирог сосиска с картошкой</t>
+  </si>
+  <si>
+    <t>Тесто дрожжевое; фарш картофельный с луком; сосиски молочные</t>
+  </si>
+  <si>
+    <t>IMG_1455.JPG</t>
+  </si>
+  <si>
+    <t>Ватрушка</t>
+  </si>
+  <si>
+    <t>Тесто дрожжевое;творог; сахар</t>
+  </si>
+  <si>
+    <t>IMG_1776.JPG</t>
+  </si>
+  <si>
+    <t>Кекс с шоколадом</t>
+  </si>
+  <si>
+    <t>Маргарин; сахар ;ванилин; шоколад; яйцо; мука; разрыхлитель</t>
+  </si>
+  <si>
+    <t>IMG_1425.JPG</t>
+  </si>
+  <si>
+    <t>Торт Медовый</t>
+  </si>
+  <si>
+    <t>Масло сливочное; яйцо; мед; мука; сода;сгущенка вареная; сгущенка белая</t>
+  </si>
+  <si>
+    <t>IMG_1590.JPG</t>
+  </si>
+  <si>
+    <t>Вензель с изюмом</t>
+  </si>
+  <si>
+    <t>Тесто дрожжевое; изюм</t>
+  </si>
+  <si>
+    <t>IMG_1165.JPG</t>
+  </si>
+  <si>
+    <t>Кекс с апельсином</t>
+  </si>
+  <si>
+    <t>Маргарин; сахар; ванилин; апельсин; яйцо; мука; разрыхлитель</t>
+  </si>
+  <si>
+    <t>IMG_1288.JPG</t>
+  </si>
+  <si>
+    <t>Беляш</t>
+  </si>
+  <si>
+    <t>Тесто дрожжевое; фарш мясной; лук репчатый; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_1739.JPG</t>
+  </si>
+  <si>
+    <t>Булочка синнабон с корицей</t>
+  </si>
+  <si>
+    <t>Тесто дрожжевое; масло сливочное; корица; сыр сливочный; сахарная пудра</t>
+  </si>
+  <si>
+    <t>IMG_1178.JPG</t>
+  </si>
+  <si>
+    <t>Блин с творогом</t>
+  </si>
+  <si>
+    <t>Молоко; яйцо; сахар; масло сливочное; масло растительное; сода; мука; творог</t>
+  </si>
+  <si>
+    <t>IMG_0307.JPG</t>
+  </si>
+  <si>
+    <t>Блин ветчина сыр</t>
+  </si>
+  <si>
+    <t>Молоко; яйцо; сахар; масло сливочное; масло растительное; сода; мука; сыр; ветчина</t>
+  </si>
+  <si>
+    <t>IMG_0305.JPG</t>
+  </si>
+  <si>
+    <t>Блин с курицей</t>
+  </si>
+  <si>
+    <t>Молоко; яйцо; сахар; масло сливочное; масло растительное; мука; сода; курица; рис</t>
+  </si>
+  <si>
+    <t>IMG_1711.JPG</t>
+  </si>
+  <si>
+    <t>Блин с курицей и помидором</t>
+  </si>
+  <si>
+    <t>Молоко; яйцо; сахар; масло сливочное; масло растительное; мука; сода; курица; помидор</t>
+  </si>
+  <si>
+    <t>IMG_1460.JPG</t>
+  </si>
+  <si>
+    <t>Булочка с джемом</t>
+  </si>
+  <si>
+    <t>Тесто дрожжевое; джем ягодный</t>
+  </si>
+  <si>
+    <t>IMG_1620.JPG</t>
+  </si>
+  <si>
+    <t>Минтай в кляре</t>
+  </si>
+  <si>
+    <t>Минтай филе; майонез; яйцо; специи; масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_0430.JPG</t>
+  </si>
+  <si>
+    <t>Желудки куриные в соусе</t>
+  </si>
+  <si>
+    <t>Желудки куриные; лук репчатый; сметана; специи; масло растительное; морковь</t>
+  </si>
+  <si>
+    <t>IMG_0505.JPG</t>
+  </si>
+  <si>
+    <t>Окорок фаршированный</t>
+  </si>
+  <si>
+    <t>Курица; грибы шампиньоны; лук репчатый; сыр; специи; майонез</t>
+  </si>
+  <si>
+    <t>IMG_0655.JPG</t>
+  </si>
+  <si>
+    <t>Куриный рулет с омлетом и колбасой</t>
+  </si>
+  <si>
+    <t>Красное мясо; яйцо; колбаса п/к; специи;масло растительное</t>
+  </si>
+  <si>
+    <t>IMG_0666.JPG</t>
+  </si>
+  <si>
+    <t>Печень под омлетом</t>
+  </si>
+  <si>
+    <t>Печень; лук репчатый; яйцо; сметана; мука; специи; молоко</t>
+  </si>
+  <si>
+    <t>IMG_0874.JPG</t>
   </si>
 </sst>
 </file>
@@ -164,7 +2246,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -185,9 +2267,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -535,1304 +2614,5898 @@
       <c r="K3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="B7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="K7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="K8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-      <c r="K9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
-      <c r="K10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
-      <c r="K11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="5">
+        <v>165.0</v>
+      </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
+      <c r="H12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="5">
+        <v>77.0</v>
+      </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
+      <c r="H13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="5">
+        <v>152.0</v>
+      </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
+      <c r="H14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="5">
+        <v>156.0</v>
+      </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
+      <c r="H15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="5">
+        <v>181.0</v>
+      </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
+      <c r="H16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="5">
+        <v>120.0</v>
+      </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="H17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="7">
+        <v>140.0</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="5">
+        <v>90.0</v>
+      </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
+      <c r="H18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="5">
+        <v>132.0</v>
+      </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
+      <c r="H19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="7">
+        <v>130.0</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="B20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="5">
+        <v>88.0</v>
+      </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
+      <c r="H20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="7">
+        <v>140.0</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="B21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="5">
+        <v>100.0</v>
+      </c>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
+      <c r="H21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="7">
+        <v>75.0</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="B22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="5">
+        <v>110.0</v>
+      </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
+      <c r="H22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="7">
+        <v>75.0</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="B23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="5">
+        <v>83.0</v>
+      </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6"/>
+      <c r="H23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="J23" s="5"/>
+      <c r="K23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="B24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="5">
+        <v>99.0</v>
+      </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6"/>
+      <c r="H24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="J24" s="5"/>
+      <c r="K24" s="7">
+        <v>130.0</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="B25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="5">
+        <v>121.0</v>
+      </c>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="H25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="J25" s="5"/>
+      <c r="K25" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="B26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="5">
+        <v>132.0</v>
+      </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="6"/>
+      <c r="H26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="J26" s="5"/>
+      <c r="K26" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="B27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="5">
+        <v>183.0</v>
+      </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="6"/>
+      <c r="H27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="J27" s="5"/>
+      <c r="K27" s="7">
+        <v>150.0</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="B28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="5">
+        <v>154.0</v>
+      </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="6"/>
+      <c r="H28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="J28" s="5"/>
+      <c r="K28" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="B29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="5">
+        <v>156.0</v>
+      </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="6"/>
+      <c r="H29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="J29" s="5"/>
+      <c r="K29" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="B30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="5">
+        <v>165.0</v>
+      </c>
       <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="6"/>
+      <c r="H30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="J30" s="5"/>
+      <c r="K30" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="6"/>
+      <c r="B31" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="5">
+        <v>212.0</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="6"/>
+      <c r="B32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="5">
+        <v>160.0</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="6"/>
+      <c r="B33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="5">
+        <v>143.0</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="6"/>
+      <c r="B34" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="5">
+        <v>165.0</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="7">
+        <v>140.0</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="6"/>
+      <c r="B35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="5">
+        <v>157.0</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="6"/>
+      <c r="B36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="5">
+        <v>149.0</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="6"/>
+      <c r="B37" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="5">
+        <v>157.0</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="7">
+        <v>110.0</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="6"/>
+      <c r="B38" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" s="5">
+        <v>192.0</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="7">
+        <v>150.0</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="6"/>
+      <c r="B39" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="5">
+        <v>110.0</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="6"/>
+      <c r="B40" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="5">
+        <v>149.0</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="7">
+        <v>110.0</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="6"/>
+      <c r="B41" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" s="5">
+        <v>120.0</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="F42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="6"/>
+      <c r="B42" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F42" s="5">
+        <v>160.0</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="7">
+        <v>110.0</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="F43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="6"/>
+      <c r="B43" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" s="5">
+        <v>157.0</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="7">
+        <v>110.0</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="F44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="6"/>
+      <c r="B44" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" s="5">
+        <v>77.0</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="7">
+        <v>80.0</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="F45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="6"/>
+      <c r="B45" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45" s="5">
+        <v>132.0</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="F46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="6"/>
+      <c r="B46" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46" s="5">
+        <v>104.0</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" s="7">
+        <v>90.0</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="F47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="6"/>
+      <c r="B47" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F47" s="5">
+        <v>139.0</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="F48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="6"/>
+      <c r="B48" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F48" s="5">
+        <v>120.0</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="F49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="6"/>
+      <c r="B49" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F49" s="5">
+        <v>110.0</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="F50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="6"/>
+      <c r="B50" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F50" s="5">
+        <v>126.0</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="7">
+        <v>130.0</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="F51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="6"/>
+      <c r="B51" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F51" s="5">
+        <v>70.0</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="F52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="6"/>
+      <c r="B52" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" s="5">
+        <v>121.0</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="F53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="6"/>
+      <c r="B53" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53" s="5">
+        <v>121.0</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="F54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="6"/>
+      <c r="B54" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F54" s="5">
+        <v>92.0</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" s="7">
+        <v>75.0</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="F55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="6"/>
+      <c r="B55" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F55" s="5">
+        <v>172.0</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="7">
+        <v>110.0</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="F56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="6"/>
+      <c r="B56" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F56" s="5">
+        <v>149.0</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" s="7">
+        <v>110.0</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="F57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="6"/>
+      <c r="B57" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F57" s="5">
+        <v>121.0</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="F58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="6"/>
+      <c r="B58" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F58" s="5">
+        <v>174.0</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="7">
+        <v>200.0</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="F59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="6"/>
+      <c r="B59" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F59" s="5">
+        <v>156.0</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="F60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="6"/>
+      <c r="B60" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F60" s="5">
+        <v>156.0</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K60" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="F61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="6"/>
+      <c r="B61" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F61" s="5">
+        <v>183.0</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" s="7">
+        <v>150.0</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="F62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="6"/>
+      <c r="B62" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F62" s="5">
+        <v>132.0</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="F63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="6"/>
+      <c r="B63" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F63" s="5">
+        <v>105.0</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="F64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="6"/>
+      <c r="B64" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F64" s="5">
+        <v>180.0</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="F65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="6"/>
+      <c r="B65" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F65" s="5">
+        <v>126.0</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="F66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="6"/>
+      <c r="B66" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F66" s="5">
+        <v>66.0</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" s="7">
+        <v>90.0</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="F67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="6"/>
+      <c r="B67" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F67" s="5">
+        <v>77.0</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K67" s="7">
+        <v>75.0</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="F68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="6"/>
+      <c r="B68" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F68" s="5">
+        <v>187.0</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K68" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="F69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="6"/>
+      <c r="B69" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F69" s="5">
+        <v>102.0</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="F70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="6"/>
+      <c r="B70" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F70" s="5">
+        <v>66.0</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="F71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="6"/>
+      <c r="B71" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F71" s="5">
+        <v>63.0</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="F72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="6"/>
+      <c r="B72" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F72" s="5">
+        <v>170.0</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K72" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="F73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="6"/>
+      <c r="B73" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F73" s="5">
+        <v>110.0</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K73" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="F74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="6"/>
+      <c r="B74" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F74" s="5">
+        <v>88.0</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K74" s="7">
+        <v>75.0</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="F75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="6"/>
+      <c r="B75" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F75" s="5">
+        <v>17.0</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K75" s="7">
+        <v>40.0</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="F76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="6"/>
+      <c r="B76" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F76" s="5">
+        <v>110.0</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K76" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="F77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="6"/>
+      <c r="B77" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F77" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K77" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="F78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="6"/>
+      <c r="B78" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F78" s="5">
+        <v>88.0</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="F79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="6"/>
+      <c r="B79" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F79" s="5">
+        <v>187.0</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K79" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="F80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="6"/>
+      <c r="B80" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F80" s="5">
+        <v>63.0</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K80" s="7">
+        <v>80.0</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="F81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="6"/>
+      <c r="B81" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F81" s="5">
+        <v>110.0</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="F82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="6"/>
+      <c r="B82" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F82" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K82" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L82" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N82" s="7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="F83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="6"/>
+      <c r="B83" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F83" s="5">
+        <v>65.0</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K83" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="F84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="6"/>
+      <c r="B84" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F84" s="5">
+        <v>90.0</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K84" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="F85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="6"/>
+      <c r="B85" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F85" s="5">
+        <v>65.0</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K85" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="F86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="6"/>
+      <c r="B86" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F86" s="5">
+        <v>55.0</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K86" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="F87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="6"/>
+      <c r="B87" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F87" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="F88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="6"/>
+      <c r="B88" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F88" s="5">
+        <v>65.0</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K88" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="F89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="6"/>
+      <c r="B89" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F89" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K89" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L89" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="F90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="6"/>
+      <c r="B90" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F90" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K90" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L90" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="F91" s="5"/>
-      <c r="I91" s="6"/>
+      <c r="B91" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F91" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K91" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L91" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="F92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="6"/>
+      <c r="B92" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F92" s="5">
+        <v>65.0</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K92" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="F93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="6"/>
+      <c r="B93" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F93" s="5">
+        <v>65.0</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K93" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="F94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="6"/>
+      <c r="B94" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F94" s="5">
+        <v>80.0</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K94" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L94" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="F95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="6"/>
+      <c r="B95" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F95" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K95" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L95" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="F96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="6"/>
+      <c r="B96" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F96" s="5">
+        <v>65.0</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K96" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L96" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="F97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="6"/>
+      <c r="B97" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F97" s="5">
+        <v>75.0</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K97" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L97" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="F98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="6"/>
+      <c r="B98" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F98" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K98" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L98" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="F99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="6"/>
+      <c r="B99" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F99" s="5">
+        <v>80.0</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K99" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L99" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="F100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="6"/>
+      <c r="B100" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F100" s="5">
+        <v>70.0</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K100" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L100" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="F101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="6"/>
+      <c r="B101" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F101" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K101" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L101" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="F102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="6"/>
+      <c r="B102" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F102" s="5">
+        <v>70.0</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K102" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L102" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="F103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="6"/>
+      <c r="B103" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F103" s="5">
+        <v>85.0</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K103" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L103" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="F104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="6"/>
+      <c r="B104" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F104" s="5">
+        <v>70.0</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K104" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L104" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="F105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="6"/>
+      <c r="B105" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F105" s="5">
+        <v>79.0</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K105" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L105" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="F106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="6"/>
+      <c r="B106" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F106" s="5">
+        <v>70.0</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K106" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L106" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="F107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="6"/>
+      <c r="B107" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F107" s="5">
+        <v>75.0</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K107" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L107" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="F108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="6"/>
+      <c r="B108" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F108" s="5">
+        <v>80.0</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K108" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L108" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="F109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="6"/>
+      <c r="B109" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F109" s="5">
+        <v>75.0</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K109" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L109" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="F110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="6"/>
+      <c r="B110" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F110" s="5">
+        <v>80.0</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K110" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L110" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="F111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="6"/>
+      <c r="B111" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F111" s="5">
+        <v>75.0</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K111" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L111" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="F112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="6"/>
+      <c r="B112" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F112" s="5">
+        <v>75.0</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K112" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L112" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="F113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="6"/>
+      <c r="B113" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F113" s="5">
+        <v>70.0</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K113" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L113" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="F114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="6"/>
+      <c r="B114" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F114" s="5">
+        <v>75.0</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K114" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L114" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="F115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="6"/>
+      <c r="B115" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F115" s="5">
+        <v>70.0</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K115" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L115" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="F116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="6"/>
+      <c r="B116" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F116" s="5">
+        <v>90.0</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K116" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L116" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="F117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="6"/>
+      <c r="B117" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F117" s="5">
+        <v>75.0</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K117" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L117" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="F118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="6"/>
+      <c r="B118" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F118" s="5">
+        <v>75.0</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K118" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L118" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="F119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="6"/>
+      <c r="B119" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F119" s="5">
+        <v>90.0</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K119" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L119" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="F120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="6"/>
+      <c r="B120" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F120" s="5">
+        <v>80.0</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K120" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L120" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="F121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="6"/>
+      <c r="B121" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F121" s="5">
+        <v>90.0</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K121" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L121" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="F122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="6"/>
+      <c r="B122" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F122" s="5">
+        <v>85.0</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K122" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L122" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="F123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="6"/>
+      <c r="B123" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F123" s="5">
+        <v>85.0</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K123" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L123" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="F124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="6"/>
+      <c r="B124" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F124" s="5">
+        <v>85.0</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K124" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L124" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="F125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="6"/>
+      <c r="B125" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F125" s="5">
+        <v>85.0</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K125" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L125" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="F126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="6"/>
+      <c r="B126" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F126" s="5">
+        <v>85.0</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K126" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L126" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="F127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="6"/>
+      <c r="B127" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F127" s="5">
+        <v>90.0</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K127" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L127" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="F128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="6"/>
+      <c r="B128" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F128" s="5">
+        <v>85.0</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K128" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L128" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="F129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="6"/>
+      <c r="B129" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F129" s="5">
+        <v>90.0</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K129" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L129" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="F130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="6"/>
+      <c r="B130" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F130" s="5">
+        <v>80.0</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K130" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L130" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="F131" s="5"/>
-      <c r="H131" s="5"/>
-      <c r="I131" s="6"/>
+      <c r="B131" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F131" s="5">
+        <v>85.0</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K131" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L131" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="F132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="6"/>
+      <c r="B132" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F132" s="5">
+        <v>90.0</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K132" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L132" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="F133" s="5"/>
-      <c r="H133" s="5"/>
-      <c r="I133" s="6"/>
+      <c r="B133" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F133" s="5">
+        <v>80.0</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K133" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L133" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="F134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="6"/>
+      <c r="B134" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F134" s="5">
+        <v>71.0</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K134" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L134" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="F135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="6"/>
+      <c r="B135" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F135" s="5">
+        <v>75.0</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I135" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K135" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L135" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="F136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="6"/>
+      <c r="B136" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F136" s="5">
+        <v>70.0</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I136" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K136" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L136" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="F137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="6"/>
+      <c r="B137" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F137" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I137" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K137" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L137" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="F138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="6"/>
+      <c r="B138" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F138" s="5">
+        <v>80.0</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K138" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L138" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="D139" s="9"/>
-      <c r="F139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="6"/>
+      <c r="B139" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F139" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="I139" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K139" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L139" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="D140" s="9"/>
-      <c r="F140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="6"/>
+      <c r="B140" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F140" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="I140" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K140" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L140" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="D141" s="9"/>
-      <c r="F141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="6"/>
+      <c r="B141" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F141" s="5">
+        <v>41.0</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="I141" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K141" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="L141" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="D142" s="9"/>
-      <c r="F142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="6"/>
+      <c r="B142" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F142" s="5">
+        <v>46.0</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="I142" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K142" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="L142" s="7" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="D143" s="9"/>
-      <c r="F143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="6"/>
+      <c r="B143" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F143" s="5">
+        <v>48.0</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I143" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K143" s="7">
+        <v>150.0</v>
+      </c>
+      <c r="L143" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="D144" s="9"/>
-      <c r="F144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="6"/>
+      <c r="B144" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F144" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I144" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K144" s="7">
+        <v>150.0</v>
+      </c>
+      <c r="L144" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="D145" s="9"/>
-      <c r="F145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="6"/>
+      <c r="B145" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F145" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I145" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K145" s="7">
+        <v>150.0</v>
+      </c>
+      <c r="L145" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="D146" s="9"/>
-      <c r="F146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="6"/>
+      <c r="B146" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F146" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I146" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K146" s="7">
+        <v>150.0</v>
+      </c>
+      <c r="L146" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="D147" s="9"/>
-      <c r="F147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="6"/>
+      <c r="B147" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F147" s="5">
+        <v>48.0</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I147" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K147" s="7">
+        <v>150.0</v>
+      </c>
+      <c r="L147" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="D148" s="9"/>
-      <c r="F148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="6"/>
+      <c r="B148" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F148" s="5">
+        <v>48.0</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I148" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K148" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="L148" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="D149" s="9"/>
-      <c r="F149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="6"/>
+      <c r="B149" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F149" s="5">
+        <v>48.0</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I149" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K149" s="7">
+        <v>200.0</v>
+      </c>
+      <c r="L149" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="D150" s="9"/>
-      <c r="F150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="6"/>
+      <c r="B150" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F150" s="5">
+        <v>48.0</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I150" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K150" s="7">
+        <v>200.0</v>
+      </c>
+      <c r="L150" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="D151" s="9"/>
-      <c r="F151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="6"/>
+      <c r="B151" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F151" s="5">
+        <v>48.0</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I151" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K151" s="7">
+        <v>200.0</v>
+      </c>
+      <c r="L151" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="D152" s="9"/>
-      <c r="F152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="6"/>
+      <c r="B152" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F152" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I152" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K152" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L152" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="F153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="6"/>
+      <c r="B153" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F153" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I153" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K153" s="7">
+        <v>150.0</v>
+      </c>
+      <c r="L153" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="F154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="6"/>
+      <c r="B154" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F154" s="5">
+        <v>48.0</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I154" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K154" s="7">
+        <v>150.0</v>
+      </c>
+      <c r="L154" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="F155" s="5"/>
-      <c r="H155" s="10"/>
-      <c r="I155" s="6"/>
+      <c r="B155" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F155" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="H155" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="I155" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K155" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L155" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="F156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="6"/>
+      <c r="B156" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F156" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I156" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K156" s="7">
+        <v>150.0</v>
+      </c>
+      <c r="L156" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="F157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="6"/>
+      <c r="B157" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F157" s="5">
+        <v>110.0</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I157" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K157" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L157" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="F158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="6"/>
+      <c r="B158" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F158" s="5">
+        <v>62.0</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="I158" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K158" s="7">
+        <v>400.0</v>
+      </c>
+      <c r="L158" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="F159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="6"/>
+      <c r="B159" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F159" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="H159" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="I159" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K159" s="7">
+        <v>200.0</v>
+      </c>
+      <c r="L159" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="F160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="6"/>
+      <c r="B160" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F160" s="5">
+        <v>35.0</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="I160" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K160" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="L160" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="F161" s="5"/>
-      <c r="H161" s="5"/>
-      <c r="I161" s="6"/>
+      <c r="B161" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F161" s="5">
+        <v>33.0</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="I161" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K161" s="7">
+        <v>200.0</v>
+      </c>
+      <c r="L161" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="F162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="6"/>
+      <c r="B162" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F162" s="5">
+        <v>72.0</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="I162" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K162" s="7">
+        <v>400.0</v>
+      </c>
+      <c r="L162" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="F163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="6"/>
+      <c r="B163" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F163" s="5">
+        <v>83.0</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I163" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K163" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L163" s="7" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="F164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="6"/>
+      <c r="B164" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F164" s="5">
+        <v>110.0</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I164" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K164" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L164" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="F165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="6"/>
+      <c r="B165" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F165" s="5">
+        <v>142.0</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I165" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K165" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L165" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="F166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="6"/>
+      <c r="B166" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F166" s="5">
+        <v>80.0</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I166" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K166" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L166" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="F167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="6"/>
+      <c r="B167" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F167" s="5">
+        <v>125.0</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I167" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K167" s="7">
+        <v>140.0</v>
+      </c>
+      <c r="L167" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="F168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="6"/>
+      <c r="B168" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F168" s="5">
+        <v>160.0</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I168" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K168" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="L168" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="F169" s="5"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="6"/>
+      <c r="B169" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F169" s="5">
+        <v>121.0</v>
+      </c>
+      <c r="H169" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I169" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K169" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L169" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="F170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="6"/>
+      <c r="B170" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="F170" s="5">
+        <v>88.0</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I170" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K170" s="7">
+        <v>140.0</v>
+      </c>
+      <c r="L170" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="F171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="6"/>
+      <c r="B171" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F171" s="5">
+        <v>88.0</v>
+      </c>
+      <c r="H171" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I171" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K171" s="7">
+        <v>140.0</v>
+      </c>
+      <c r="L171" s="7" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="F172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="6"/>
+      <c r="B172" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F172" s="5">
+        <v>176.0</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I172" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K172" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="L172" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="F173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="6"/>
+      <c r="B173" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F173" s="5">
+        <v>88.0</v>
+      </c>
+      <c r="H173" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I173" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K173" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L173" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="F174" s="5"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="6"/>
+      <c r="B174" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F174" s="5">
+        <v>77.0</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I174" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K174" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L174" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="F175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="6"/>
+      <c r="B175" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F175" s="5">
+        <v>110.0</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I175" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K175" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L175" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="F176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="6"/>
+      <c r="B176" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F176" s="5">
+        <v>121.0</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I176" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K176" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L176" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="F177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="6"/>
+      <c r="B177" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F177" s="5">
+        <v>88.0</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I177" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K177" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L177" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="F178" s="5"/>
-      <c r="H178" s="5"/>
-      <c r="I178" s="6"/>
+      <c r="B178" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="F178" s="5">
+        <v>110.0</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I178" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K178" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L178" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="F179" s="5"/>
-      <c r="H179" s="5"/>
-      <c r="I179" s="6"/>
+      <c r="B179" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F179" s="5">
+        <v>88.0</v>
+      </c>
+      <c r="H179" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I179" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K179" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L179" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="F180" s="5"/>
-      <c r="H180" s="5"/>
-      <c r="I180" s="6"/>
+      <c r="B180" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F180" s="5">
+        <v>110.0</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I180" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K180" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L180" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="F181" s="5"/>
-      <c r="H181" s="5"/>
-      <c r="I181" s="6"/>
+      <c r="B181" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="F181" s="5">
+        <v>121.0</v>
+      </c>
+      <c r="H181" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I181" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K181" s="7">
+        <v>140.0</v>
+      </c>
+      <c r="L181" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="F182" s="5"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="6"/>
+      <c r="B182" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="F182" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I182" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K182" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L182" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="F183" s="5"/>
-      <c r="H183" s="5"/>
-      <c r="I183" s="6"/>
+      <c r="B183" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="F183" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="H183" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I183" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K183" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L183" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="F184" s="5"/>
-      <c r="H184" s="5"/>
-      <c r="I184" s="6"/>
+      <c r="B184" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="F184" s="5">
+        <v>99.0</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I184" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K184" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L184" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="F185" s="5"/>
-      <c r="H185" s="5"/>
-      <c r="I185" s="6"/>
+      <c r="B185" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="F185" s="5">
+        <v>132.0</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I185" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K185" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L185" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="F186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="6"/>
+      <c r="B186" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="F186" s="5">
+        <v>126.0</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I186" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K186" s="7">
+        <v>125.0</v>
+      </c>
+      <c r="L186" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="F187" s="5"/>
-      <c r="H187" s="5"/>
-      <c r="I187" s="6"/>
+      <c r="B187" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F187" s="5">
+        <v>110.0</v>
+      </c>
+      <c r="H187" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I187" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K187" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L187" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="F188" s="5"/>
-      <c r="H188" s="5"/>
-      <c r="I188" s="6"/>
+      <c r="B188" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="F188" s="5">
+        <v>70.0</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I188" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K188" s="7">
+        <v>150.0</v>
+      </c>
+      <c r="L188" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="F189" s="5"/>
-      <c r="H189" s="5"/>
-      <c r="I189" s="6"/>
+      <c r="B189" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="F189" s="5">
+        <v>55.0</v>
+      </c>
+      <c r="H189" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I189" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K189" s="7">
+        <v>150.0</v>
+      </c>
+      <c r="L189" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="F190" s="5"/>
-      <c r="H190" s="5"/>
-      <c r="I190" s="6"/>
+      <c r="B190" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F190" s="5">
+        <v>78.0</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I190" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K190" s="7">
+        <v>200.0</v>
+      </c>
+      <c r="L190" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="F191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="6"/>
+      <c r="B191" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="F191" s="5">
+        <v>70.0</v>
+      </c>
+      <c r="H191" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I191" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K191" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L191" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="F192" s="5"/>
-      <c r="H192" s="5"/>
-      <c r="I192" s="6"/>
+      <c r="B192" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F192" s="5">
+        <v>85.0</v>
+      </c>
+      <c r="H192" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I192" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K192" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L192" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="F193" s="5"/>
-      <c r="H193" s="5"/>
-      <c r="I193" s="6"/>
+      <c r="B193" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="F193" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="H193" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I193" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K193" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L193" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="F194" s="5"/>
-      <c r="H194" s="5"/>
-      <c r="I194" s="6"/>
+      <c r="B194" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F194" s="5">
+        <v>121.0</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I194" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K194" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L194" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="F195" s="5"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="6"/>
+      <c r="B195" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="F195" s="5">
+        <v>113.0</v>
+      </c>
+      <c r="H195" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I195" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K195" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L195" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="F196" s="5"/>
-      <c r="H196" s="5"/>
-      <c r="I196" s="6"/>
+      <c r="B196" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="F196" s="5">
+        <v>77.0</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I196" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K196" s="7">
+        <v>75.0</v>
+      </c>
+      <c r="L196" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="F197" s="5"/>
-      <c r="H197" s="5"/>
-      <c r="I197" s="6"/>
+      <c r="B197" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F197" s="5">
+        <v>91.0</v>
+      </c>
+      <c r="H197" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I197" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K197" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L197" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="F198" s="5"/>
-      <c r="H198" s="5"/>
-      <c r="I198" s="6"/>
+      <c r="B198" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="F198" s="5">
+        <v>118.0</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I198" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K198" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L198" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="F199" s="5"/>
-      <c r="H199" s="5"/>
-      <c r="I199" s="6"/>
+      <c r="B199" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="F199" s="5">
+        <v>90.0</v>
+      </c>
+      <c r="H199" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I199" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K199" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L199" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="F200" s="5"/>
-      <c r="H200" s="5"/>
-      <c r="I200" s="6"/>
+      <c r="B200" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="F200" s="5">
+        <v>85.0</v>
+      </c>
+      <c r="H200" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I200" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K200" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L200" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="F201" s="5"/>
-      <c r="H201" s="5"/>
-      <c r="I201" s="6"/>
+      <c r="B201" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="F201" s="5">
+        <v>65.0</v>
+      </c>
+      <c r="H201" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I201" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K201" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L201" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="F202" s="5"/>
-      <c r="H202" s="5"/>
-      <c r="I202" s="6"/>
+      <c r="B202" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="F202" s="5">
+        <v>75.0</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I202" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K202" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L202" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="F203" s="5"/>
-      <c r="H203" s="5"/>
-      <c r="I203" s="6"/>
+      <c r="B203" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="F203" s="5">
+        <v>75.0</v>
+      </c>
+      <c r="H203" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I203" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K203" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L203" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="F204" s="5"/>
-      <c r="H204" s="5"/>
-      <c r="I204" s="6"/>
+      <c r="B204" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="F204" s="5">
+        <v>75.0</v>
+      </c>
+      <c r="H204" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I204" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K204" s="7">
+        <v>120.0</v>
+      </c>
+      <c r="L204" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="F205" s="5"/>
-      <c r="H205" s="5"/>
-      <c r="I205" s="6"/>
+      <c r="B205" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="F205" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="H205" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I205" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K205" s="7">
+        <v>160.0</v>
+      </c>
+      <c r="L205" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="F206" s="5"/>
-      <c r="H206" s="5"/>
-      <c r="I206" s="6"/>
+      <c r="B206" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="F206" s="5">
+        <v>42.0</v>
+      </c>
+      <c r="H206" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I206" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K206" s="7">
+        <v>110.0</v>
+      </c>
+      <c r="L206" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="F207" s="5"/>
-      <c r="H207" s="5"/>
-      <c r="I207" s="6"/>
+      <c r="B207" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="F207" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="H207" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I207" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K207" s="7">
+        <v>110.0</v>
+      </c>
+      <c r="L207" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="F208" s="5"/>
-      <c r="H208" s="5"/>
-      <c r="I208" s="6"/>
+      <c r="B208" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="F208" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="H208" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I208" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K208" s="7">
+        <v>110.0</v>
+      </c>
+      <c r="L208" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="F209" s="5"/>
-      <c r="H209" s="5"/>
-      <c r="I209" s="6"/>
+      <c r="B209" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="F209" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="H209" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I209" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K209" s="7">
+        <v>110.0</v>
+      </c>
+      <c r="L209" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="F210" s="5"/>
-      <c r="H210" s="5"/>
-      <c r="I210" s="6"/>
+      <c r="B210" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F210" s="5">
+        <v>48.0</v>
+      </c>
+      <c r="H210" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I210" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K210" s="7">
+        <v>110.0</v>
+      </c>
+      <c r="L210" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="F211" s="5"/>
-      <c r="H211" s="5"/>
-      <c r="I211" s="6"/>
+      <c r="B211" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F211" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="H211" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I211" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K211" s="7">
+        <v>110.0</v>
+      </c>
+      <c r="L211" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="F212" s="5"/>
-      <c r="H212" s="5"/>
-      <c r="I212" s="6"/>
+      <c r="B212" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="E212" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="F212" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="H212" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I212" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K212" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L212" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="F213" s="5"/>
-      <c r="H213" s="5"/>
-      <c r="I213" s="6"/>
+      <c r="B213" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="F213" s="5">
+        <v>84.0</v>
+      </c>
+      <c r="H213" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I213" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K213" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L213" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="F214" s="5"/>
-      <c r="H214" s="5"/>
-      <c r="I214" s="6"/>
+      <c r="B214" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="F214" s="5">
+        <v>36.0</v>
+      </c>
+      <c r="H214" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I214" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K214" s="7">
+        <v>110.0</v>
+      </c>
+      <c r="L214" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="F215" s="5"/>
-      <c r="H215" s="5"/>
-      <c r="I215" s="6"/>
+      <c r="B215" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="F215" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="H215" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I215" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K215" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L215" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="F216" s="5"/>
-      <c r="H216" s="5"/>
-      <c r="I216" s="6"/>
+      <c r="B216" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="F216" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="H216" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I216" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K216" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L216" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="F217" s="5"/>
-      <c r="H217" s="5"/>
-      <c r="I217" s="6"/>
+      <c r="B217" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="F217" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="H217" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I217" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K217" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L217" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="F218" s="5"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="6"/>
+      <c r="B218" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="F218" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="H218" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I218" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K218" s="7">
+        <v>80.0</v>
+      </c>
+      <c r="L218" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="F219" s="5"/>
-      <c r="H219" s="5"/>
-      <c r="I219" s="6"/>
+      <c r="B219" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="F219" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="H219" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I219" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K219" s="7">
+        <v>80.0</v>
+      </c>
+      <c r="L219" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="F220" s="5"/>
-      <c r="H220" s="5"/>
-      <c r="I220" s="6"/>
+      <c r="B220" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="F220" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="H220" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I220" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K220" s="7">
+        <v>80.0</v>
+      </c>
+      <c r="L220" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="F221" s="5"/>
-      <c r="H221" s="5"/>
-      <c r="I221" s="6"/>
+      <c r="B221" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="E221" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="F221" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="H221" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I221" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K221" s="7">
+        <v>80.0</v>
+      </c>
+      <c r="L221" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="F222" s="5"/>
-      <c r="H222" s="5"/>
-      <c r="I222" s="6"/>
+      <c r="B222" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="F222" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="H222" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I222" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K222" s="7">
+        <v>110.0</v>
+      </c>
+      <c r="L222" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="F223" s="5"/>
-      <c r="H223" s="5"/>
-      <c r="I223" s="6"/>
+      <c r="B223" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="F223" s="5">
+        <v>106.0</v>
+      </c>
+      <c r="H223" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I223" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K223" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="L223" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="F224" s="5"/>
-      <c r="H224" s="5"/>
-      <c r="I224" s="6"/>
+      <c r="B224" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="E224" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="F224" s="5">
+        <v>121.0</v>
+      </c>
+      <c r="H224" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I224" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K224" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L224" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="F225" s="5"/>
-      <c r="H225" s="5"/>
-      <c r="I225" s="6"/>
+      <c r="B225" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="E225" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="F225" s="5">
+        <v>94.0</v>
+      </c>
+      <c r="H225" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I225" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K225" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L225" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="F226" s="5"/>
-      <c r="H226" s="5"/>
-      <c r="I226" s="6"/>
+      <c r="B226" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="E226" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="F226" s="5">
+        <v>187.0</v>
+      </c>
+      <c r="H226" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I226" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K226" s="7">
+        <v>140.0</v>
+      </c>
+      <c r="L226" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="F227" s="5"/>
-      <c r="H227" s="5"/>
-      <c r="I227" s="6"/>
+      <c r="B227" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="F227" s="5">
+        <v>118.0</v>
+      </c>
+      <c r="H227" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I227" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K227" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L227" s="7" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="228" ht="15.75" customHeight="1"/>
     <row r="229" ht="15.75" customHeight="1"/>
